--- a/Documents/ScreenLayouts/SCR-DSH-03-CreatePost.xlsx
+++ b/Documents/ScreenLayouts/SCR-DSH-03-CreatePost.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rautatul/Documents/Atul/Study/Projects/booking-dev/booking/Documents/ScreenLayouts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A35C7BB-BADE-0243-B3FD-36BDB4A3CFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0087EA80-13D8-6746-BD43-BDD23D415667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15800" xr2:uid="{90052BEC-FEBB-F247-ACB1-709744DE85BE}"/>
+    <workbookView xWindow="13320" yWindow="2020" windowWidth="16320" windowHeight="11700" xr2:uid="{90052BEC-FEBB-F247-ACB1-709744DE85BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="5" r:id="rId1"/>
@@ -480,6 +480,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -487,48 +493,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -541,6 +505,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2714,7 +2714,7 @@
                 <xdr:spPr>
                   <a:xfrm>
                     <a:off x="4592184" y="1540004"/>
-                    <a:ext cx="1468203" cy="306431"/>
+                    <a:ext cx="1468203" cy="381206"/>
                   </a:xfrm>
                   <a:prstGeom prst="rect">
                     <a:avLst/>
@@ -3617,211 +3617,211 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43867302-6022-BC45-9802-796B2A9AA285}">
   <dimension ref="A1:DD92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70:X70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="Y82" sqref="Y82:AM82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2" defaultRowHeight="8" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:108" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="X1" s="27"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="27"/>
+      <c r="AC1" s="27"/>
+      <c r="AD1" s="27"/>
     </row>
     <row r="2" spans="1:108" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="26"/>
-      <c r="AD2" s="26"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
     </row>
     <row r="3" spans="1:108" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
     </row>
     <row r="4" spans="1:108" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="27" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
     </row>
     <row r="5" spans="1:108" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="28"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="28"/>
+      <c r="AD5" s="28"/>
     </row>
     <row r="6" spans="1:108" ht="8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="27"/>
-      <c r="AA6" s="27"/>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="28"/>
     </row>
     <row r="9" spans="1:108" ht="8" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:108" ht="8" customHeight="1" x14ac:dyDescent="0.2">
@@ -9594,628 +9594,628 @@
       <c r="CT67" s="11"/>
     </row>
     <row r="68" spans="3:98" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="21" t="s">
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H68" s="21"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
-      <c r="U68" s="21"/>
-      <c r="V68" s="21"/>
-      <c r="W68" s="21"/>
-      <c r="X68" s="21"/>
-      <c r="Y68" s="21" t="s">
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
+      <c r="X68" s="29"/>
+      <c r="Y68" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="Z68" s="21"/>
-      <c r="AA68" s="21"/>
-      <c r="AB68" s="21"/>
-      <c r="AC68" s="21"/>
-      <c r="AD68" s="21"/>
-      <c r="AE68" s="21"/>
-      <c r="AF68" s="21"/>
-      <c r="AG68" s="21"/>
-      <c r="AH68" s="21"/>
-      <c r="AI68" s="21"/>
-      <c r="AJ68" s="21"/>
-      <c r="AK68" s="21"/>
-      <c r="AL68" s="21"/>
-      <c r="AM68" s="21"/>
-      <c r="AN68" s="21" t="s">
+      <c r="Z68" s="29"/>
+      <c r="AA68" s="29"/>
+      <c r="AB68" s="29"/>
+      <c r="AC68" s="29"/>
+      <c r="AD68" s="29"/>
+      <c r="AE68" s="29"/>
+      <c r="AF68" s="29"/>
+      <c r="AG68" s="29"/>
+      <c r="AH68" s="29"/>
+      <c r="AI68" s="29"/>
+      <c r="AJ68" s="29"/>
+      <c r="AK68" s="29"/>
+      <c r="AL68" s="29"/>
+      <c r="AM68" s="29"/>
+      <c r="AN68" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AO68" s="21"/>
-      <c r="AP68" s="21"/>
-      <c r="AQ68" s="21"/>
-      <c r="AR68" s="21"/>
-      <c r="AS68" s="21"/>
-      <c r="AT68" s="21"/>
-      <c r="AU68" s="21"/>
-      <c r="AV68" s="21"/>
-      <c r="AW68" s="21"/>
-      <c r="AX68" s="21"/>
-      <c r="AY68" s="21"/>
-      <c r="AZ68" s="21"/>
-      <c r="BA68" s="21"/>
-      <c r="BB68" s="21"/>
-      <c r="BC68" s="21"/>
-      <c r="BD68" s="21"/>
-      <c r="BE68" s="21"/>
-      <c r="BF68" s="21"/>
-      <c r="BG68" s="21"/>
-      <c r="BH68" s="21"/>
-      <c r="BI68" s="21"/>
-      <c r="BJ68" s="21" t="s">
+      <c r="AO68" s="29"/>
+      <c r="AP68" s="29"/>
+      <c r="AQ68" s="29"/>
+      <c r="AR68" s="29"/>
+      <c r="AS68" s="29"/>
+      <c r="AT68" s="29"/>
+      <c r="AU68" s="29"/>
+      <c r="AV68" s="29"/>
+      <c r="AW68" s="29"/>
+      <c r="AX68" s="29"/>
+      <c r="AY68" s="29"/>
+      <c r="AZ68" s="29"/>
+      <c r="BA68" s="29"/>
+      <c r="BB68" s="29"/>
+      <c r="BC68" s="29"/>
+      <c r="BD68" s="29"/>
+      <c r="BE68" s="29"/>
+      <c r="BF68" s="29"/>
+      <c r="BG68" s="29"/>
+      <c r="BH68" s="29"/>
+      <c r="BI68" s="29"/>
+      <c r="BJ68" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="BK68" s="21"/>
-      <c r="BL68" s="21"/>
-      <c r="BM68" s="21"/>
-      <c r="BN68" s="21"/>
-      <c r="BO68" s="21"/>
-      <c r="BP68" s="21"/>
-      <c r="BQ68" s="21"/>
-      <c r="BR68" s="21"/>
-      <c r="BS68" s="21"/>
-      <c r="BT68" s="21"/>
-      <c r="BU68" s="21"/>
-      <c r="BV68" s="21"/>
-      <c r="BW68" s="21"/>
-      <c r="BX68" s="21"/>
-      <c r="BY68" s="21"/>
-      <c r="BZ68" s="21" t="s">
+      <c r="BK68" s="29"/>
+      <c r="BL68" s="29"/>
+      <c r="BM68" s="29"/>
+      <c r="BN68" s="29"/>
+      <c r="BO68" s="29"/>
+      <c r="BP68" s="29"/>
+      <c r="BQ68" s="29"/>
+      <c r="BR68" s="29"/>
+      <c r="BS68" s="29"/>
+      <c r="BT68" s="29"/>
+      <c r="BU68" s="29"/>
+      <c r="BV68" s="29"/>
+      <c r="BW68" s="29"/>
+      <c r="BX68" s="29"/>
+      <c r="BY68" s="29"/>
+      <c r="BZ68" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CA68" s="21"/>
-      <c r="CB68" s="21"/>
-      <c r="CC68" s="21"/>
-      <c r="CD68" s="21"/>
-      <c r="CE68" s="21"/>
-      <c r="CF68" s="21"/>
-      <c r="CG68" s="21"/>
-      <c r="CH68" s="21"/>
-      <c r="CI68" s="21"/>
-      <c r="CJ68" s="21"/>
-      <c r="CK68" s="21"/>
-      <c r="CL68" s="21"/>
-      <c r="CM68" s="21"/>
-      <c r="CN68" s="21"/>
-      <c r="CO68" s="21"/>
-      <c r="CP68" s="21"/>
-      <c r="CQ68" s="21"/>
-      <c r="CR68" s="21"/>
-      <c r="CS68" s="21"/>
-      <c r="CT68" s="22"/>
+      <c r="CA68" s="29"/>
+      <c r="CB68" s="29"/>
+      <c r="CC68" s="29"/>
+      <c r="CD68" s="29"/>
+      <c r="CE68" s="29"/>
+      <c r="CF68" s="29"/>
+      <c r="CG68" s="29"/>
+      <c r="CH68" s="29"/>
+      <c r="CI68" s="29"/>
+      <c r="CJ68" s="29"/>
+      <c r="CK68" s="29"/>
+      <c r="CL68" s="29"/>
+      <c r="CM68" s="29"/>
+      <c r="CN68" s="29"/>
+      <c r="CO68" s="29"/>
+      <c r="CP68" s="29"/>
+      <c r="CQ68" s="29"/>
+      <c r="CR68" s="29"/>
+      <c r="CS68" s="29"/>
+      <c r="CT68" s="30"/>
     </row>
     <row r="69" spans="3:98" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="23">
+      <c r="C69" s="24">
         <v>1</v>
       </c>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="24" t="s">
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="24"/>
-      <c r="T69" s="24"/>
-      <c r="U69" s="24"/>
-      <c r="V69" s="24"/>
-      <c r="W69" s="24"/>
-      <c r="X69" s="24"/>
-      <c r="Y69" s="24" t="s">
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="22"/>
+      <c r="Q69" s="22"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="22"/>
+      <c r="T69" s="22"/>
+      <c r="U69" s="22"/>
+      <c r="V69" s="22"/>
+      <c r="W69" s="22"/>
+      <c r="X69" s="22"/>
+      <c r="Y69" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="Z69" s="24"/>
-      <c r="AA69" s="24"/>
-      <c r="AB69" s="24"/>
-      <c r="AC69" s="24"/>
-      <c r="AD69" s="24"/>
-      <c r="AE69" s="24"/>
-      <c r="AF69" s="24"/>
-      <c r="AG69" s="24"/>
-      <c r="AH69" s="24"/>
-      <c r="AI69" s="24"/>
-      <c r="AJ69" s="24"/>
-      <c r="AK69" s="24"/>
-      <c r="AL69" s="24"/>
-      <c r="AM69" s="24"/>
-      <c r="AN69" s="18" t="s">
+      <c r="Z69" s="22"/>
+      <c r="AA69" s="22"/>
+      <c r="AB69" s="22"/>
+      <c r="AC69" s="22"/>
+      <c r="AD69" s="22"/>
+      <c r="AE69" s="22"/>
+      <c r="AF69" s="22"/>
+      <c r="AG69" s="22"/>
+      <c r="AH69" s="22"/>
+      <c r="AI69" s="22"/>
+      <c r="AJ69" s="22"/>
+      <c r="AK69" s="22"/>
+      <c r="AL69" s="22"/>
+      <c r="AM69" s="22"/>
+      <c r="AN69" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AO69" s="18"/>
-      <c r="AP69" s="18"/>
-      <c r="AQ69" s="18"/>
-      <c r="AR69" s="18"/>
-      <c r="AS69" s="18"/>
-      <c r="AT69" s="18"/>
-      <c r="AU69" s="18"/>
-      <c r="AV69" s="18"/>
-      <c r="AW69" s="18"/>
-      <c r="AX69" s="18"/>
-      <c r="AY69" s="18"/>
-      <c r="AZ69" s="18"/>
-      <c r="BA69" s="18"/>
-      <c r="BB69" s="18"/>
-      <c r="BC69" s="18"/>
-      <c r="BD69" s="18"/>
-      <c r="BE69" s="18"/>
-      <c r="BF69" s="18"/>
-      <c r="BG69" s="18"/>
-      <c r="BH69" s="18"/>
-      <c r="BI69" s="18"/>
-      <c r="BJ69" s="24"/>
-      <c r="BK69" s="24"/>
-      <c r="BL69" s="24"/>
-      <c r="BM69" s="24"/>
-      <c r="BN69" s="24"/>
-      <c r="BO69" s="24"/>
-      <c r="BP69" s="24"/>
-      <c r="BQ69" s="24"/>
-      <c r="BR69" s="24"/>
-      <c r="BS69" s="24"/>
-      <c r="BT69" s="24"/>
-      <c r="BU69" s="24"/>
-      <c r="BV69" s="24"/>
-      <c r="BW69" s="24"/>
-      <c r="BX69" s="24"/>
-      <c r="BY69" s="24"/>
-      <c r="BZ69" s="24"/>
-      <c r="CA69" s="24"/>
-      <c r="CB69" s="24"/>
-      <c r="CC69" s="24"/>
-      <c r="CD69" s="24"/>
-      <c r="CE69" s="24"/>
-      <c r="CF69" s="24"/>
-      <c r="CG69" s="24"/>
-      <c r="CH69" s="24"/>
-      <c r="CI69" s="24"/>
-      <c r="CJ69" s="24"/>
-      <c r="CK69" s="24"/>
-      <c r="CL69" s="24"/>
-      <c r="CM69" s="24"/>
-      <c r="CN69" s="24"/>
-      <c r="CO69" s="24"/>
-      <c r="CP69" s="24"/>
-      <c r="CQ69" s="24"/>
-      <c r="CR69" s="24"/>
-      <c r="CS69" s="24"/>
-      <c r="CT69" s="29"/>
+      <c r="AO69" s="23"/>
+      <c r="AP69" s="23"/>
+      <c r="AQ69" s="23"/>
+      <c r="AR69" s="23"/>
+      <c r="AS69" s="23"/>
+      <c r="AT69" s="23"/>
+      <c r="AU69" s="23"/>
+      <c r="AV69" s="23"/>
+      <c r="AW69" s="23"/>
+      <c r="AX69" s="23"/>
+      <c r="AY69" s="23"/>
+      <c r="AZ69" s="23"/>
+      <c r="BA69" s="23"/>
+      <c r="BB69" s="23"/>
+      <c r="BC69" s="23"/>
+      <c r="BD69" s="23"/>
+      <c r="BE69" s="23"/>
+      <c r="BF69" s="23"/>
+      <c r="BG69" s="23"/>
+      <c r="BH69" s="23"/>
+      <c r="BI69" s="23"/>
+      <c r="BJ69" s="22"/>
+      <c r="BK69" s="22"/>
+      <c r="BL69" s="22"/>
+      <c r="BM69" s="22"/>
+      <c r="BN69" s="22"/>
+      <c r="BO69" s="22"/>
+      <c r="BP69" s="22"/>
+      <c r="BQ69" s="22"/>
+      <c r="BR69" s="22"/>
+      <c r="BS69" s="22"/>
+      <c r="BT69" s="22"/>
+      <c r="BU69" s="22"/>
+      <c r="BV69" s="22"/>
+      <c r="BW69" s="22"/>
+      <c r="BX69" s="22"/>
+      <c r="BY69" s="22"/>
+      <c r="BZ69" s="22"/>
+      <c r="CA69" s="22"/>
+      <c r="CB69" s="22"/>
+      <c r="CC69" s="22"/>
+      <c r="CD69" s="22"/>
+      <c r="CE69" s="22"/>
+      <c r="CF69" s="22"/>
+      <c r="CG69" s="22"/>
+      <c r="CH69" s="22"/>
+      <c r="CI69" s="22"/>
+      <c r="CJ69" s="22"/>
+      <c r="CK69" s="22"/>
+      <c r="CL69" s="22"/>
+      <c r="CM69" s="22"/>
+      <c r="CN69" s="22"/>
+      <c r="CO69" s="22"/>
+      <c r="CP69" s="22"/>
+      <c r="CQ69" s="22"/>
+      <c r="CR69" s="22"/>
+      <c r="CS69" s="22"/>
+      <c r="CT69" s="25"/>
     </row>
     <row r="70" spans="3:98" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="13">
+      <c r="C70" s="15">
         <v>2</v>
       </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="15" t="s">
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="16"/>
-      <c r="W70" s="16"/>
-      <c r="X70" s="16"/>
-      <c r="Y70" s="16" t="s">
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="13"/>
+      <c r="S70" s="13"/>
+      <c r="T70" s="13"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="13"/>
+      <c r="W70" s="13"/>
+      <c r="X70" s="13"/>
+      <c r="Y70" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="Z70" s="16"/>
-      <c r="AA70" s="16"/>
-      <c r="AB70" s="16"/>
-      <c r="AC70" s="16"/>
-      <c r="AD70" s="16"/>
-      <c r="AE70" s="16"/>
-      <c r="AF70" s="16"/>
-      <c r="AG70" s="16"/>
-      <c r="AH70" s="16"/>
-      <c r="AI70" s="16"/>
-      <c r="AJ70" s="16"/>
-      <c r="AK70" s="16"/>
-      <c r="AL70" s="16"/>
-      <c r="AM70" s="16"/>
-      <c r="AN70" s="18" t="s">
+      <c r="Z70" s="13"/>
+      <c r="AA70" s="13"/>
+      <c r="AB70" s="13"/>
+      <c r="AC70" s="13"/>
+      <c r="AD70" s="13"/>
+      <c r="AE70" s="13"/>
+      <c r="AF70" s="13"/>
+      <c r="AG70" s="13"/>
+      <c r="AH70" s="13"/>
+      <c r="AI70" s="13"/>
+      <c r="AJ70" s="13"/>
+      <c r="AK70" s="13"/>
+      <c r="AL70" s="13"/>
+      <c r="AM70" s="13"/>
+      <c r="AN70" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AO70" s="18"/>
-      <c r="AP70" s="18"/>
-      <c r="AQ70" s="18"/>
-      <c r="AR70" s="18"/>
-      <c r="AS70" s="18"/>
-      <c r="AT70" s="18"/>
-      <c r="AU70" s="18"/>
-      <c r="AV70" s="18"/>
-      <c r="AW70" s="18"/>
-      <c r="AX70" s="18"/>
-      <c r="AY70" s="18"/>
-      <c r="AZ70" s="18"/>
-      <c r="BA70" s="18"/>
-      <c r="BB70" s="18"/>
-      <c r="BC70" s="18"/>
-      <c r="BD70" s="18"/>
-      <c r="BE70" s="18"/>
-      <c r="BF70" s="18"/>
-      <c r="BG70" s="18"/>
-      <c r="BH70" s="18"/>
-      <c r="BI70" s="18"/>
-      <c r="BJ70" s="16"/>
-      <c r="BK70" s="16"/>
-      <c r="BL70" s="16"/>
-      <c r="BM70" s="16"/>
-      <c r="BN70" s="16"/>
-      <c r="BO70" s="16"/>
-      <c r="BP70" s="16"/>
-      <c r="BQ70" s="16"/>
-      <c r="BR70" s="16"/>
-      <c r="BS70" s="16"/>
-      <c r="BT70" s="16"/>
-      <c r="BU70" s="16"/>
-      <c r="BV70" s="16"/>
-      <c r="BW70" s="16"/>
-      <c r="BX70" s="16"/>
-      <c r="BY70" s="16"/>
-      <c r="BZ70" s="16"/>
-      <c r="CA70" s="16"/>
-      <c r="CB70" s="16"/>
-      <c r="CC70" s="16"/>
-      <c r="CD70" s="16"/>
-      <c r="CE70" s="16"/>
-      <c r="CF70" s="16"/>
-      <c r="CG70" s="16"/>
-      <c r="CH70" s="16"/>
-      <c r="CI70" s="16"/>
-      <c r="CJ70" s="16"/>
-      <c r="CK70" s="16"/>
-      <c r="CL70" s="16"/>
-      <c r="CM70" s="16"/>
-      <c r="CN70" s="16"/>
-      <c r="CO70" s="16"/>
-      <c r="CP70" s="16"/>
-      <c r="CQ70" s="16"/>
-      <c r="CR70" s="16"/>
-      <c r="CS70" s="16"/>
-      <c r="CT70" s="28"/>
+      <c r="AO70" s="23"/>
+      <c r="AP70" s="23"/>
+      <c r="AQ70" s="23"/>
+      <c r="AR70" s="23"/>
+      <c r="AS70" s="23"/>
+      <c r="AT70" s="23"/>
+      <c r="AU70" s="23"/>
+      <c r="AV70" s="23"/>
+      <c r="AW70" s="23"/>
+      <c r="AX70" s="23"/>
+      <c r="AY70" s="23"/>
+      <c r="AZ70" s="23"/>
+      <c r="BA70" s="23"/>
+      <c r="BB70" s="23"/>
+      <c r="BC70" s="23"/>
+      <c r="BD70" s="23"/>
+      <c r="BE70" s="23"/>
+      <c r="BF70" s="23"/>
+      <c r="BG70" s="23"/>
+      <c r="BH70" s="23"/>
+      <c r="BI70" s="23"/>
+      <c r="BJ70" s="13"/>
+      <c r="BK70" s="13"/>
+      <c r="BL70" s="13"/>
+      <c r="BM70" s="13"/>
+      <c r="BN70" s="13"/>
+      <c r="BO70" s="13"/>
+      <c r="BP70" s="13"/>
+      <c r="BQ70" s="13"/>
+      <c r="BR70" s="13"/>
+      <c r="BS70" s="13"/>
+      <c r="BT70" s="13"/>
+      <c r="BU70" s="13"/>
+      <c r="BV70" s="13"/>
+      <c r="BW70" s="13"/>
+      <c r="BX70" s="13"/>
+      <c r="BY70" s="13"/>
+      <c r="BZ70" s="13"/>
+      <c r="CA70" s="13"/>
+      <c r="CB70" s="13"/>
+      <c r="CC70" s="13"/>
+      <c r="CD70" s="13"/>
+      <c r="CE70" s="13"/>
+      <c r="CF70" s="13"/>
+      <c r="CG70" s="13"/>
+      <c r="CH70" s="13"/>
+      <c r="CI70" s="13"/>
+      <c r="CJ70" s="13"/>
+      <c r="CK70" s="13"/>
+      <c r="CL70" s="13"/>
+      <c r="CM70" s="13"/>
+      <c r="CN70" s="13"/>
+      <c r="CO70" s="13"/>
+      <c r="CP70" s="13"/>
+      <c r="CQ70" s="13"/>
+      <c r="CR70" s="13"/>
+      <c r="CS70" s="13"/>
+      <c r="CT70" s="14"/>
     </row>
     <row r="71" spans="3:98" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C71" s="13">
+      <c r="C71" s="15">
         <v>3</v>
       </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="15" t="s">
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-      <c r="W71" s="16"/>
-      <c r="X71" s="16"/>
-      <c r="Y71" s="16" t="s">
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="13"/>
+      <c r="S71" s="13"/>
+      <c r="T71" s="13"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="13"/>
+      <c r="W71" s="13"/>
+      <c r="X71" s="13"/>
+      <c r="Y71" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Z71" s="16"/>
-      <c r="AA71" s="16"/>
-      <c r="AB71" s="16"/>
-      <c r="AC71" s="16"/>
-      <c r="AD71" s="16"/>
-      <c r="AE71" s="16"/>
-      <c r="AF71" s="16"/>
-      <c r="AG71" s="16"/>
-      <c r="AH71" s="16"/>
-      <c r="AI71" s="16"/>
-      <c r="AJ71" s="16"/>
-      <c r="AK71" s="16"/>
-      <c r="AL71" s="16"/>
-      <c r="AM71" s="16"/>
-      <c r="AN71" s="14" t="s">
+      <c r="Z71" s="13"/>
+      <c r="AA71" s="13"/>
+      <c r="AB71" s="13"/>
+      <c r="AC71" s="13"/>
+      <c r="AD71" s="13"/>
+      <c r="AE71" s="13"/>
+      <c r="AF71" s="13"/>
+      <c r="AG71" s="13"/>
+      <c r="AH71" s="13"/>
+      <c r="AI71" s="13"/>
+      <c r="AJ71" s="13"/>
+      <c r="AK71" s="13"/>
+      <c r="AL71" s="13"/>
+      <c r="AM71" s="13"/>
+      <c r="AN71" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AO71" s="14"/>
-      <c r="AP71" s="14"/>
-      <c r="AQ71" s="14"/>
-      <c r="AR71" s="14"/>
-      <c r="AS71" s="14"/>
-      <c r="AT71" s="14"/>
-      <c r="AU71" s="14"/>
-      <c r="AV71" s="14"/>
-      <c r="AW71" s="14"/>
-      <c r="AX71" s="14"/>
-      <c r="AY71" s="14"/>
-      <c r="AZ71" s="14"/>
-      <c r="BA71" s="14"/>
-      <c r="BB71" s="14"/>
-      <c r="BC71" s="14"/>
-      <c r="BD71" s="14"/>
-      <c r="BE71" s="14"/>
-      <c r="BF71" s="14"/>
-      <c r="BG71" s="14"/>
-      <c r="BH71" s="14"/>
-      <c r="BI71" s="14"/>
-      <c r="BJ71" s="16"/>
-      <c r="BK71" s="16"/>
-      <c r="BL71" s="16"/>
-      <c r="BM71" s="16"/>
-      <c r="BN71" s="16"/>
-      <c r="BO71" s="16"/>
-      <c r="BP71" s="16"/>
-      <c r="BQ71" s="16"/>
-      <c r="BR71" s="16"/>
-      <c r="BS71" s="16"/>
-      <c r="BT71" s="16"/>
-      <c r="BU71" s="16"/>
-      <c r="BV71" s="16"/>
-      <c r="BW71" s="16"/>
-      <c r="BX71" s="16"/>
-      <c r="BY71" s="16"/>
-      <c r="BZ71" s="16"/>
-      <c r="CA71" s="16"/>
-      <c r="CB71" s="16"/>
-      <c r="CC71" s="16"/>
-      <c r="CD71" s="16"/>
-      <c r="CE71" s="16"/>
-      <c r="CF71" s="16"/>
-      <c r="CG71" s="16"/>
-      <c r="CH71" s="16"/>
-      <c r="CI71" s="16"/>
-      <c r="CJ71" s="16"/>
-      <c r="CK71" s="16"/>
-      <c r="CL71" s="16"/>
-      <c r="CM71" s="16"/>
-      <c r="CN71" s="16"/>
-      <c r="CO71" s="16"/>
-      <c r="CP71" s="16"/>
-      <c r="CQ71" s="16"/>
-      <c r="CR71" s="16"/>
-      <c r="CS71" s="16"/>
-      <c r="CT71" s="28"/>
+      <c r="AO71" s="16"/>
+      <c r="AP71" s="16"/>
+      <c r="AQ71" s="16"/>
+      <c r="AR71" s="16"/>
+      <c r="AS71" s="16"/>
+      <c r="AT71" s="16"/>
+      <c r="AU71" s="16"/>
+      <c r="AV71" s="16"/>
+      <c r="AW71" s="16"/>
+      <c r="AX71" s="16"/>
+      <c r="AY71" s="16"/>
+      <c r="AZ71" s="16"/>
+      <c r="BA71" s="16"/>
+      <c r="BB71" s="16"/>
+      <c r="BC71" s="16"/>
+      <c r="BD71" s="16"/>
+      <c r="BE71" s="16"/>
+      <c r="BF71" s="16"/>
+      <c r="BG71" s="16"/>
+      <c r="BH71" s="16"/>
+      <c r="BI71" s="16"/>
+      <c r="BJ71" s="13"/>
+      <c r="BK71" s="13"/>
+      <c r="BL71" s="13"/>
+      <c r="BM71" s="13"/>
+      <c r="BN71" s="13"/>
+      <c r="BO71" s="13"/>
+      <c r="BP71" s="13"/>
+      <c r="BQ71" s="13"/>
+      <c r="BR71" s="13"/>
+      <c r="BS71" s="13"/>
+      <c r="BT71" s="13"/>
+      <c r="BU71" s="13"/>
+      <c r="BV71" s="13"/>
+      <c r="BW71" s="13"/>
+      <c r="BX71" s="13"/>
+      <c r="BY71" s="13"/>
+      <c r="BZ71" s="13"/>
+      <c r="CA71" s="13"/>
+      <c r="CB71" s="13"/>
+      <c r="CC71" s="13"/>
+      <c r="CD71" s="13"/>
+      <c r="CE71" s="13"/>
+      <c r="CF71" s="13"/>
+      <c r="CG71" s="13"/>
+      <c r="CH71" s="13"/>
+      <c r="CI71" s="13"/>
+      <c r="CJ71" s="13"/>
+      <c r="CK71" s="13"/>
+      <c r="CL71" s="13"/>
+      <c r="CM71" s="13"/>
+      <c r="CN71" s="13"/>
+      <c r="CO71" s="13"/>
+      <c r="CP71" s="13"/>
+      <c r="CQ71" s="13"/>
+      <c r="CR71" s="13"/>
+      <c r="CS71" s="13"/>
+      <c r="CT71" s="14"/>
     </row>
     <row r="72" spans="3:98" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-      <c r="W72" s="16"/>
-      <c r="X72" s="16"/>
-      <c r="Y72" s="16"/>
-      <c r="Z72" s="16"/>
-      <c r="AA72" s="16"/>
-      <c r="AB72" s="16"/>
-      <c r="AC72" s="16"/>
-      <c r="AD72" s="16"/>
-      <c r="AE72" s="16"/>
-      <c r="AF72" s="16"/>
-      <c r="AG72" s="16"/>
-      <c r="AH72" s="16"/>
-      <c r="AI72" s="16"/>
-      <c r="AJ72" s="16"/>
-      <c r="AK72" s="16"/>
-      <c r="AL72" s="16"/>
-      <c r="AM72" s="16"/>
-      <c r="AN72" s="14"/>
-      <c r="AO72" s="14"/>
-      <c r="AP72" s="14"/>
-      <c r="AQ72" s="14"/>
-      <c r="AR72" s="14"/>
-      <c r="AS72" s="14"/>
-      <c r="AT72" s="14"/>
-      <c r="AU72" s="14"/>
-      <c r="AV72" s="14"/>
-      <c r="AW72" s="14"/>
-      <c r="AX72" s="14"/>
-      <c r="AY72" s="14"/>
-      <c r="AZ72" s="14"/>
-      <c r="BA72" s="14"/>
-      <c r="BB72" s="14"/>
-      <c r="BC72" s="14"/>
-      <c r="BD72" s="14"/>
-      <c r="BE72" s="14"/>
-      <c r="BF72" s="14"/>
-      <c r="BG72" s="14"/>
-      <c r="BH72" s="14"/>
-      <c r="BI72" s="14"/>
-      <c r="BJ72" s="16"/>
-      <c r="BK72" s="16"/>
-      <c r="BL72" s="16"/>
-      <c r="BM72" s="16"/>
-      <c r="BN72" s="16"/>
-      <c r="BO72" s="16"/>
-      <c r="BP72" s="16"/>
-      <c r="BQ72" s="16"/>
-      <c r="BR72" s="16"/>
-      <c r="BS72" s="16"/>
-      <c r="BT72" s="16"/>
-      <c r="BU72" s="16"/>
-      <c r="BV72" s="16"/>
-      <c r="BW72" s="16"/>
-      <c r="BX72" s="16"/>
-      <c r="BY72" s="16"/>
-      <c r="BZ72" s="16"/>
-      <c r="CA72" s="16"/>
-      <c r="CB72" s="16"/>
-      <c r="CC72" s="16"/>
-      <c r="CD72" s="16"/>
-      <c r="CE72" s="16"/>
-      <c r="CF72" s="16"/>
-      <c r="CG72" s="16"/>
-      <c r="CH72" s="16"/>
-      <c r="CI72" s="16"/>
-      <c r="CJ72" s="16"/>
-      <c r="CK72" s="16"/>
-      <c r="CL72" s="16"/>
-      <c r="CM72" s="16"/>
-      <c r="CN72" s="16"/>
-      <c r="CO72" s="16"/>
-      <c r="CP72" s="16"/>
-      <c r="CQ72" s="16"/>
-      <c r="CR72" s="16"/>
-      <c r="CS72" s="16"/>
-      <c r="CT72" s="28"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="13"/>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
+      <c r="X72" s="13"/>
+      <c r="Y72" s="13"/>
+      <c r="Z72" s="13"/>
+      <c r="AA72" s="13"/>
+      <c r="AB72" s="13"/>
+      <c r="AC72" s="13"/>
+      <c r="AD72" s="13"/>
+      <c r="AE72" s="13"/>
+      <c r="AF72" s="13"/>
+      <c r="AG72" s="13"/>
+      <c r="AH72" s="13"/>
+      <c r="AI72" s="13"/>
+      <c r="AJ72" s="13"/>
+      <c r="AK72" s="13"/>
+      <c r="AL72" s="13"/>
+      <c r="AM72" s="13"/>
+      <c r="AN72" s="16"/>
+      <c r="AO72" s="16"/>
+      <c r="AP72" s="16"/>
+      <c r="AQ72" s="16"/>
+      <c r="AR72" s="16"/>
+      <c r="AS72" s="16"/>
+      <c r="AT72" s="16"/>
+      <c r="AU72" s="16"/>
+      <c r="AV72" s="16"/>
+      <c r="AW72" s="16"/>
+      <c r="AX72" s="16"/>
+      <c r="AY72" s="16"/>
+      <c r="AZ72" s="16"/>
+      <c r="BA72" s="16"/>
+      <c r="BB72" s="16"/>
+      <c r="BC72" s="16"/>
+      <c r="BD72" s="16"/>
+      <c r="BE72" s="16"/>
+      <c r="BF72" s="16"/>
+      <c r="BG72" s="16"/>
+      <c r="BH72" s="16"/>
+      <c r="BI72" s="16"/>
+      <c r="BJ72" s="13"/>
+      <c r="BK72" s="13"/>
+      <c r="BL72" s="13"/>
+      <c r="BM72" s="13"/>
+      <c r="BN72" s="13"/>
+      <c r="BO72" s="13"/>
+      <c r="BP72" s="13"/>
+      <c r="BQ72" s="13"/>
+      <c r="BR72" s="13"/>
+      <c r="BS72" s="13"/>
+      <c r="BT72" s="13"/>
+      <c r="BU72" s="13"/>
+      <c r="BV72" s="13"/>
+      <c r="BW72" s="13"/>
+      <c r="BX72" s="13"/>
+      <c r="BY72" s="13"/>
+      <c r="BZ72" s="13"/>
+      <c r="CA72" s="13"/>
+      <c r="CB72" s="13"/>
+      <c r="CC72" s="13"/>
+      <c r="CD72" s="13"/>
+      <c r="CE72" s="13"/>
+      <c r="CF72" s="13"/>
+      <c r="CG72" s="13"/>
+      <c r="CH72" s="13"/>
+      <c r="CI72" s="13"/>
+      <c r="CJ72" s="13"/>
+      <c r="CK72" s="13"/>
+      <c r="CL72" s="13"/>
+      <c r="CM72" s="13"/>
+      <c r="CN72" s="13"/>
+      <c r="CO72" s="13"/>
+      <c r="CP72" s="13"/>
+      <c r="CQ72" s="13"/>
+      <c r="CR72" s="13"/>
+      <c r="CS72" s="13"/>
+      <c r="CT72" s="14"/>
     </row>
     <row r="73" spans="3:98" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="32"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="30"/>
-      <c r="N73" s="30"/>
-      <c r="O73" s="30"/>
-      <c r="P73" s="30"/>
-      <c r="Q73" s="30"/>
-      <c r="R73" s="30"/>
-      <c r="S73" s="30"/>
-      <c r="T73" s="30"/>
-      <c r="U73" s="30"/>
-      <c r="V73" s="30"/>
-      <c r="W73" s="30"/>
-      <c r="X73" s="30"/>
-      <c r="Y73" s="30"/>
-      <c r="Z73" s="30"/>
-      <c r="AA73" s="30"/>
-      <c r="AB73" s="30"/>
-      <c r="AC73" s="30"/>
-      <c r="AD73" s="30"/>
-      <c r="AE73" s="30"/>
-      <c r="AF73" s="30"/>
-      <c r="AG73" s="30"/>
-      <c r="AH73" s="30"/>
-      <c r="AI73" s="30"/>
-      <c r="AJ73" s="30"/>
-      <c r="AK73" s="30"/>
-      <c r="AL73" s="30"/>
-      <c r="AM73" s="30"/>
-      <c r="AN73" s="33"/>
-      <c r="AO73" s="33"/>
-      <c r="AP73" s="33"/>
-      <c r="AQ73" s="33"/>
-      <c r="AR73" s="33"/>
-      <c r="AS73" s="33"/>
-      <c r="AT73" s="33"/>
-      <c r="AU73" s="33"/>
-      <c r="AV73" s="33"/>
-      <c r="AW73" s="33"/>
-      <c r="AX73" s="33"/>
-      <c r="AY73" s="33"/>
-      <c r="AZ73" s="33"/>
-      <c r="BA73" s="33"/>
-      <c r="BB73" s="33"/>
-      <c r="BC73" s="33"/>
-      <c r="BD73" s="33"/>
-      <c r="BE73" s="33"/>
-      <c r="BF73" s="33"/>
-      <c r="BG73" s="33"/>
-      <c r="BH73" s="33"/>
-      <c r="BI73" s="33"/>
-      <c r="BJ73" s="30"/>
-      <c r="BK73" s="30"/>
-      <c r="BL73" s="30"/>
-      <c r="BM73" s="30"/>
-      <c r="BN73" s="30"/>
-      <c r="BO73" s="30"/>
-      <c r="BP73" s="30"/>
-      <c r="BQ73" s="30"/>
-      <c r="BR73" s="30"/>
-      <c r="BS73" s="30"/>
-      <c r="BT73" s="30"/>
-      <c r="BU73" s="30"/>
-      <c r="BV73" s="30"/>
-      <c r="BW73" s="30"/>
-      <c r="BX73" s="30"/>
-      <c r="BY73" s="30"/>
-      <c r="BZ73" s="30"/>
-      <c r="CA73" s="30"/>
-      <c r="CB73" s="30"/>
-      <c r="CC73" s="30"/>
-      <c r="CD73" s="30"/>
-      <c r="CE73" s="30"/>
-      <c r="CF73" s="30"/>
-      <c r="CG73" s="30"/>
-      <c r="CH73" s="30"/>
-      <c r="CI73" s="30"/>
-      <c r="CJ73" s="30"/>
-      <c r="CK73" s="30"/>
-      <c r="CL73" s="30"/>
-      <c r="CM73" s="30"/>
-      <c r="CN73" s="30"/>
-      <c r="CO73" s="30"/>
-      <c r="CP73" s="30"/>
-      <c r="CQ73" s="30"/>
-      <c r="CR73" s="30"/>
-      <c r="CS73" s="30"/>
-      <c r="CT73" s="31"/>
+      <c r="C73" s="20"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="18"/>
+      <c r="U73" s="18"/>
+      <c r="V73" s="18"/>
+      <c r="W73" s="18"/>
+      <c r="X73" s="18"/>
+      <c r="Y73" s="18"/>
+      <c r="Z73" s="18"/>
+      <c r="AA73" s="18"/>
+      <c r="AB73" s="18"/>
+      <c r="AC73" s="18"/>
+      <c r="AD73" s="18"/>
+      <c r="AE73" s="18"/>
+      <c r="AF73" s="18"/>
+      <c r="AG73" s="18"/>
+      <c r="AH73" s="18"/>
+      <c r="AI73" s="18"/>
+      <c r="AJ73" s="18"/>
+      <c r="AK73" s="18"/>
+      <c r="AL73" s="18"/>
+      <c r="AM73" s="18"/>
+      <c r="AN73" s="21"/>
+      <c r="AO73" s="21"/>
+      <c r="AP73" s="21"/>
+      <c r="AQ73" s="21"/>
+      <c r="AR73" s="21"/>
+      <c r="AS73" s="21"/>
+      <c r="AT73" s="21"/>
+      <c r="AU73" s="21"/>
+      <c r="AV73" s="21"/>
+      <c r="AW73" s="21"/>
+      <c r="AX73" s="21"/>
+      <c r="AY73" s="21"/>
+      <c r="AZ73" s="21"/>
+      <c r="BA73" s="21"/>
+      <c r="BB73" s="21"/>
+      <c r="BC73" s="21"/>
+      <c r="BD73" s="21"/>
+      <c r="BE73" s="21"/>
+      <c r="BF73" s="21"/>
+      <c r="BG73" s="21"/>
+      <c r="BH73" s="21"/>
+      <c r="BI73" s="21"/>
+      <c r="BJ73" s="18"/>
+      <c r="BK73" s="18"/>
+      <c r="BL73" s="18"/>
+      <c r="BM73" s="18"/>
+      <c r="BN73" s="18"/>
+      <c r="BO73" s="18"/>
+      <c r="BP73" s="18"/>
+      <c r="BQ73" s="18"/>
+      <c r="BR73" s="18"/>
+      <c r="BS73" s="18"/>
+      <c r="BT73" s="18"/>
+      <c r="BU73" s="18"/>
+      <c r="BV73" s="18"/>
+      <c r="BW73" s="18"/>
+      <c r="BX73" s="18"/>
+      <c r="BY73" s="18"/>
+      <c r="BZ73" s="18"/>
+      <c r="CA73" s="18"/>
+      <c r="CB73" s="18"/>
+      <c r="CC73" s="18"/>
+      <c r="CD73" s="18"/>
+      <c r="CE73" s="18"/>
+      <c r="CF73" s="18"/>
+      <c r="CG73" s="18"/>
+      <c r="CH73" s="18"/>
+      <c r="CI73" s="18"/>
+      <c r="CJ73" s="18"/>
+      <c r="CK73" s="18"/>
+      <c r="CL73" s="18"/>
+      <c r="CM73" s="18"/>
+      <c r="CN73" s="18"/>
+      <c r="CO73" s="18"/>
+      <c r="CP73" s="18"/>
+      <c r="CQ73" s="18"/>
+      <c r="CR73" s="18"/>
+      <c r="CS73" s="18"/>
+      <c r="CT73" s="19"/>
     </row>
     <row r="74" spans="3:98" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="75" spans="3:98" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -10283,1043 +10283,1129 @@
       <c r="BI76" s="11"/>
     </row>
     <row r="77" spans="3:98" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21" t="s">
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="21"/>
-      <c r="T77" s="21"/>
-      <c r="U77" s="21"/>
-      <c r="V77" s="21"/>
-      <c r="W77" s="21"/>
-      <c r="X77" s="21"/>
-      <c r="Y77" s="21" t="s">
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="29"/>
+      <c r="N77" s="29"/>
+      <c r="O77" s="29"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="29"/>
+      <c r="T77" s="29"/>
+      <c r="U77" s="29"/>
+      <c r="V77" s="29"/>
+      <c r="W77" s="29"/>
+      <c r="X77" s="29"/>
+      <c r="Y77" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Z77" s="21"/>
-      <c r="AA77" s="21"/>
-      <c r="AB77" s="21"/>
-      <c r="AC77" s="21"/>
-      <c r="AD77" s="21"/>
-      <c r="AE77" s="21"/>
-      <c r="AF77" s="21"/>
-      <c r="AG77" s="21"/>
-      <c r="AH77" s="21"/>
-      <c r="AI77" s="21"/>
-      <c r="AJ77" s="21"/>
-      <c r="AK77" s="21"/>
-      <c r="AL77" s="21"/>
-      <c r="AM77" s="21"/>
-      <c r="AN77" s="21" t="s">
+      <c r="Z77" s="29"/>
+      <c r="AA77" s="29"/>
+      <c r="AB77" s="29"/>
+      <c r="AC77" s="29"/>
+      <c r="AD77" s="29"/>
+      <c r="AE77" s="29"/>
+      <c r="AF77" s="29"/>
+      <c r="AG77" s="29"/>
+      <c r="AH77" s="29"/>
+      <c r="AI77" s="29"/>
+      <c r="AJ77" s="29"/>
+      <c r="AK77" s="29"/>
+      <c r="AL77" s="29"/>
+      <c r="AM77" s="29"/>
+      <c r="AN77" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="AO77" s="21"/>
-      <c r="AP77" s="21"/>
-      <c r="AQ77" s="21"/>
-      <c r="AR77" s="21"/>
-      <c r="AS77" s="21"/>
-      <c r="AT77" s="21"/>
-      <c r="AU77" s="21"/>
-      <c r="AV77" s="21"/>
-      <c r="AW77" s="21"/>
-      <c r="AX77" s="21"/>
-      <c r="AY77" s="21"/>
-      <c r="AZ77" s="21"/>
-      <c r="BA77" s="21"/>
-      <c r="BB77" s="21"/>
-      <c r="BC77" s="21"/>
-      <c r="BD77" s="21"/>
-      <c r="BE77" s="21"/>
-      <c r="BF77" s="21"/>
-      <c r="BG77" s="21"/>
-      <c r="BH77" s="21"/>
-      <c r="BI77" s="22"/>
+      <c r="AO77" s="29"/>
+      <c r="AP77" s="29"/>
+      <c r="AQ77" s="29"/>
+      <c r="AR77" s="29"/>
+      <c r="AS77" s="29"/>
+      <c r="AT77" s="29"/>
+      <c r="AU77" s="29"/>
+      <c r="AV77" s="29"/>
+      <c r="AW77" s="29"/>
+      <c r="AX77" s="29"/>
+      <c r="AY77" s="29"/>
+      <c r="AZ77" s="29"/>
+      <c r="BA77" s="29"/>
+      <c r="BB77" s="29"/>
+      <c r="BC77" s="29"/>
+      <c r="BD77" s="29"/>
+      <c r="BE77" s="29"/>
+      <c r="BF77" s="29"/>
+      <c r="BG77" s="29"/>
+      <c r="BH77" s="29"/>
+      <c r="BI77" s="30"/>
     </row>
     <row r="78" spans="3:98" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C78" s="23">
+      <c r="C78" s="24">
         <v>1</v>
       </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="24" t="s">
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="24"/>
-      <c r="R78" s="24"/>
-      <c r="S78" s="24"/>
-      <c r="T78" s="24"/>
-      <c r="U78" s="24"/>
-      <c r="V78" s="24"/>
-      <c r="W78" s="24"/>
-      <c r="X78" s="24"/>
-      <c r="Y78" s="24" t="s">
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="22"/>
+      <c r="Q78" s="22"/>
+      <c r="R78" s="22"/>
+      <c r="S78" s="22"/>
+      <c r="T78" s="22"/>
+      <c r="U78" s="22"/>
+      <c r="V78" s="22"/>
+      <c r="W78" s="22"/>
+      <c r="X78" s="22"/>
+      <c r="Y78" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Z78" s="24"/>
-      <c r="AA78" s="24"/>
-      <c r="AB78" s="24"/>
-      <c r="AC78" s="24"/>
-      <c r="AD78" s="24"/>
-      <c r="AE78" s="24"/>
-      <c r="AF78" s="24"/>
-      <c r="AG78" s="24"/>
-      <c r="AH78" s="24"/>
-      <c r="AI78" s="24"/>
-      <c r="AJ78" s="24"/>
-      <c r="AK78" s="24"/>
-      <c r="AL78" s="24"/>
-      <c r="AM78" s="24"/>
-      <c r="AN78" s="18" t="s">
+      <c r="Z78" s="22"/>
+      <c r="AA78" s="22"/>
+      <c r="AB78" s="22"/>
+      <c r="AC78" s="22"/>
+      <c r="AD78" s="22"/>
+      <c r="AE78" s="22"/>
+      <c r="AF78" s="22"/>
+      <c r="AG78" s="22"/>
+      <c r="AH78" s="22"/>
+      <c r="AI78" s="22"/>
+      <c r="AJ78" s="22"/>
+      <c r="AK78" s="22"/>
+      <c r="AL78" s="22"/>
+      <c r="AM78" s="22"/>
+      <c r="AN78" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AO78" s="18"/>
-      <c r="AP78" s="18"/>
-      <c r="AQ78" s="18"/>
-      <c r="AR78" s="18"/>
-      <c r="AS78" s="18"/>
-      <c r="AT78" s="18"/>
-      <c r="AU78" s="18"/>
-      <c r="AV78" s="18"/>
-      <c r="AW78" s="18"/>
-      <c r="AX78" s="18"/>
-      <c r="AY78" s="18"/>
-      <c r="AZ78" s="18"/>
-      <c r="BA78" s="18"/>
-      <c r="BB78" s="18"/>
-      <c r="BC78" s="18"/>
-      <c r="BD78" s="18"/>
-      <c r="BE78" s="18"/>
-      <c r="BF78" s="18"/>
-      <c r="BG78" s="18"/>
-      <c r="BH78" s="18"/>
-      <c r="BI78" s="19"/>
+      <c r="AO78" s="23"/>
+      <c r="AP78" s="23"/>
+      <c r="AQ78" s="23"/>
+      <c r="AR78" s="23"/>
+      <c r="AS78" s="23"/>
+      <c r="AT78" s="23"/>
+      <c r="AU78" s="23"/>
+      <c r="AV78" s="23"/>
+      <c r="AW78" s="23"/>
+      <c r="AX78" s="23"/>
+      <c r="AY78" s="23"/>
+      <c r="AZ78" s="23"/>
+      <c r="BA78" s="23"/>
+      <c r="BB78" s="23"/>
+      <c r="BC78" s="23"/>
+      <c r="BD78" s="23"/>
+      <c r="BE78" s="23"/>
+      <c r="BF78" s="23"/>
+      <c r="BG78" s="23"/>
+      <c r="BH78" s="23"/>
+      <c r="BI78" s="32"/>
     </row>
     <row r="79" spans="3:98" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C79" s="13">
+      <c r="C79" s="15">
         <v>2</v>
       </c>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="15" t="s">
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="16"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="16"/>
-      <c r="U79" s="16"/>
-      <c r="V79" s="16"/>
-      <c r="W79" s="16"/>
-      <c r="X79" s="16"/>
-      <c r="Y79" s="16" t="s">
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+      <c r="V79" s="13"/>
+      <c r="W79" s="13"/>
+      <c r="X79" s="13"/>
+      <c r="Y79" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Z79" s="16"/>
-      <c r="AA79" s="16"/>
-      <c r="AB79" s="16"/>
-      <c r="AC79" s="16"/>
-      <c r="AD79" s="16"/>
-      <c r="AE79" s="16"/>
-      <c r="AF79" s="16"/>
-      <c r="AG79" s="16"/>
-      <c r="AH79" s="16"/>
-      <c r="AI79" s="16"/>
-      <c r="AJ79" s="16"/>
-      <c r="AK79" s="16"/>
-      <c r="AL79" s="16"/>
-      <c r="AM79" s="16"/>
-      <c r="AN79" s="18"/>
-      <c r="AO79" s="18"/>
-      <c r="AP79" s="18"/>
-      <c r="AQ79" s="18"/>
-      <c r="AR79" s="18"/>
-      <c r="AS79" s="18"/>
-      <c r="AT79" s="18"/>
-      <c r="AU79" s="18"/>
-      <c r="AV79" s="18"/>
-      <c r="AW79" s="18"/>
-      <c r="AX79" s="18"/>
-      <c r="AY79" s="18"/>
-      <c r="AZ79" s="18"/>
-      <c r="BA79" s="18"/>
-      <c r="BB79" s="18"/>
-      <c r="BC79" s="18"/>
-      <c r="BD79" s="18"/>
-      <c r="BE79" s="18"/>
-      <c r="BF79" s="18"/>
-      <c r="BG79" s="18"/>
-      <c r="BH79" s="18"/>
-      <c r="BI79" s="19"/>
+      <c r="Z79" s="13"/>
+      <c r="AA79" s="13"/>
+      <c r="AB79" s="13"/>
+      <c r="AC79" s="13"/>
+      <c r="AD79" s="13"/>
+      <c r="AE79" s="13"/>
+      <c r="AF79" s="13"/>
+      <c r="AG79" s="13"/>
+      <c r="AH79" s="13"/>
+      <c r="AI79" s="13"/>
+      <c r="AJ79" s="13"/>
+      <c r="AK79" s="13"/>
+      <c r="AL79" s="13"/>
+      <c r="AM79" s="13"/>
+      <c r="AN79" s="23"/>
+      <c r="AO79" s="23"/>
+      <c r="AP79" s="23"/>
+      <c r="AQ79" s="23"/>
+      <c r="AR79" s="23"/>
+      <c r="AS79" s="23"/>
+      <c r="AT79" s="23"/>
+      <c r="AU79" s="23"/>
+      <c r="AV79" s="23"/>
+      <c r="AW79" s="23"/>
+      <c r="AX79" s="23"/>
+      <c r="AY79" s="23"/>
+      <c r="AZ79" s="23"/>
+      <c r="BA79" s="23"/>
+      <c r="BB79" s="23"/>
+      <c r="BC79" s="23"/>
+      <c r="BD79" s="23"/>
+      <c r="BE79" s="23"/>
+      <c r="BF79" s="23"/>
+      <c r="BG79" s="23"/>
+      <c r="BH79" s="23"/>
+      <c r="BI79" s="32"/>
     </row>
     <row r="80" spans="3:98" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C80" s="13">
+      <c r="C80" s="15">
         <v>3</v>
       </c>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="15" t="s">
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="16"/>
-      <c r="S80" s="16"/>
-      <c r="T80" s="16"/>
-      <c r="U80" s="16"/>
-      <c r="V80" s="16"/>
-      <c r="W80" s="16"/>
-      <c r="X80" s="16"/>
-      <c r="Y80" s="16" t="s">
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+      <c r="U80" s="13"/>
+      <c r="V80" s="13"/>
+      <c r="W80" s="13"/>
+      <c r="X80" s="13"/>
+      <c r="Y80" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Z80" s="16"/>
-      <c r="AA80" s="16"/>
-      <c r="AB80" s="16"/>
-      <c r="AC80" s="16"/>
-      <c r="AD80" s="16"/>
-      <c r="AE80" s="16"/>
-      <c r="AF80" s="16"/>
-      <c r="AG80" s="16"/>
-      <c r="AH80" s="16"/>
-      <c r="AI80" s="16"/>
-      <c r="AJ80" s="16"/>
-      <c r="AK80" s="16"/>
-      <c r="AL80" s="16"/>
-      <c r="AM80" s="16"/>
-      <c r="AN80" s="18"/>
-      <c r="AO80" s="18"/>
-      <c r="AP80" s="18"/>
-      <c r="AQ80" s="18"/>
-      <c r="AR80" s="18"/>
-      <c r="AS80" s="18"/>
-      <c r="AT80" s="18"/>
-      <c r="AU80" s="18"/>
-      <c r="AV80" s="18"/>
-      <c r="AW80" s="18"/>
-      <c r="AX80" s="18"/>
-      <c r="AY80" s="18"/>
-      <c r="AZ80" s="18"/>
-      <c r="BA80" s="18"/>
-      <c r="BB80" s="18"/>
-      <c r="BC80" s="18"/>
-      <c r="BD80" s="18"/>
-      <c r="BE80" s="18"/>
-      <c r="BF80" s="18"/>
-      <c r="BG80" s="18"/>
-      <c r="BH80" s="18"/>
-      <c r="BI80" s="19"/>
+      <c r="Z80" s="13"/>
+      <c r="AA80" s="13"/>
+      <c r="AB80" s="13"/>
+      <c r="AC80" s="13"/>
+      <c r="AD80" s="13"/>
+      <c r="AE80" s="13"/>
+      <c r="AF80" s="13"/>
+      <c r="AG80" s="13"/>
+      <c r="AH80" s="13"/>
+      <c r="AI80" s="13"/>
+      <c r="AJ80" s="13"/>
+      <c r="AK80" s="13"/>
+      <c r="AL80" s="13"/>
+      <c r="AM80" s="13"/>
+      <c r="AN80" s="23"/>
+      <c r="AO80" s="23"/>
+      <c r="AP80" s="23"/>
+      <c r="AQ80" s="23"/>
+      <c r="AR80" s="23"/>
+      <c r="AS80" s="23"/>
+      <c r="AT80" s="23"/>
+      <c r="AU80" s="23"/>
+      <c r="AV80" s="23"/>
+      <c r="AW80" s="23"/>
+      <c r="AX80" s="23"/>
+      <c r="AY80" s="23"/>
+      <c r="AZ80" s="23"/>
+      <c r="BA80" s="23"/>
+      <c r="BB80" s="23"/>
+      <c r="BC80" s="23"/>
+      <c r="BD80" s="23"/>
+      <c r="BE80" s="23"/>
+      <c r="BF80" s="23"/>
+      <c r="BG80" s="23"/>
+      <c r="BH80" s="23"/>
+      <c r="BI80" s="32"/>
     </row>
     <row r="81" spans="3:61" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="13">
+      <c r="C81" s="15">
         <v>3</v>
       </c>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="15" t="s">
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="16"/>
-      <c r="T81" s="16"/>
-      <c r="U81" s="16"/>
-      <c r="V81" s="16"/>
-      <c r="W81" s="16"/>
-      <c r="X81" s="16"/>
-      <c r="Y81" s="16" t="s">
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13"/>
+      <c r="V81" s="13"/>
+      <c r="W81" s="13"/>
+      <c r="X81" s="13"/>
+      <c r="Y81" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Z81" s="16"/>
-      <c r="AA81" s="16"/>
-      <c r="AB81" s="16"/>
-      <c r="AC81" s="16"/>
-      <c r="AD81" s="16"/>
-      <c r="AE81" s="16"/>
-      <c r="AF81" s="16"/>
-      <c r="AG81" s="16"/>
-      <c r="AH81" s="16"/>
-      <c r="AI81" s="16"/>
-      <c r="AJ81" s="16"/>
-      <c r="AK81" s="16"/>
-      <c r="AL81" s="16"/>
-      <c r="AM81" s="16"/>
-      <c r="AN81" s="18"/>
-      <c r="AO81" s="18"/>
-      <c r="AP81" s="18"/>
-      <c r="AQ81" s="18"/>
-      <c r="AR81" s="18"/>
-      <c r="AS81" s="18"/>
-      <c r="AT81" s="18"/>
-      <c r="AU81" s="18"/>
-      <c r="AV81" s="18"/>
-      <c r="AW81" s="18"/>
-      <c r="AX81" s="18"/>
-      <c r="AY81" s="18"/>
-      <c r="AZ81" s="18"/>
-      <c r="BA81" s="18"/>
-      <c r="BB81" s="18"/>
-      <c r="BC81" s="18"/>
-      <c r="BD81" s="18"/>
-      <c r="BE81" s="18"/>
-      <c r="BF81" s="18"/>
-      <c r="BG81" s="18"/>
-      <c r="BH81" s="18"/>
-      <c r="BI81" s="19"/>
+      <c r="Z81" s="13"/>
+      <c r="AA81" s="13"/>
+      <c r="AB81" s="13"/>
+      <c r="AC81" s="13"/>
+      <c r="AD81" s="13"/>
+      <c r="AE81" s="13"/>
+      <c r="AF81" s="13"/>
+      <c r="AG81" s="13"/>
+      <c r="AH81" s="13"/>
+      <c r="AI81" s="13"/>
+      <c r="AJ81" s="13"/>
+      <c r="AK81" s="13"/>
+      <c r="AL81" s="13"/>
+      <c r="AM81" s="13"/>
+      <c r="AN81" s="23"/>
+      <c r="AO81" s="23"/>
+      <c r="AP81" s="23"/>
+      <c r="AQ81" s="23"/>
+      <c r="AR81" s="23"/>
+      <c r="AS81" s="23"/>
+      <c r="AT81" s="23"/>
+      <c r="AU81" s="23"/>
+      <c r="AV81" s="23"/>
+      <c r="AW81" s="23"/>
+      <c r="AX81" s="23"/>
+      <c r="AY81" s="23"/>
+      <c r="AZ81" s="23"/>
+      <c r="BA81" s="23"/>
+      <c r="BB81" s="23"/>
+      <c r="BC81" s="23"/>
+      <c r="BD81" s="23"/>
+      <c r="BE81" s="23"/>
+      <c r="BF81" s="23"/>
+      <c r="BG81" s="23"/>
+      <c r="BH81" s="23"/>
+      <c r="BI81" s="32"/>
     </row>
     <row r="82" spans="3:61" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C82" s="13">
+      <c r="C82" s="15">
         <v>4</v>
       </c>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="15" t="s">
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="16"/>
-      <c r="S82" s="16"/>
-      <c r="T82" s="16"/>
-      <c r="U82" s="16"/>
-      <c r="V82" s="16"/>
-      <c r="W82" s="16"/>
-      <c r="X82" s="16"/>
-      <c r="Y82" s="16" t="s">
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13"/>
+      <c r="U82" s="13"/>
+      <c r="V82" s="13"/>
+      <c r="W82" s="13"/>
+      <c r="X82" s="13"/>
+      <c r="Y82" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Z82" s="16"/>
-      <c r="AA82" s="16"/>
-      <c r="AB82" s="16"/>
-      <c r="AC82" s="16"/>
-      <c r="AD82" s="16"/>
-      <c r="AE82" s="16"/>
-      <c r="AF82" s="16"/>
-      <c r="AG82" s="16"/>
-      <c r="AH82" s="16"/>
-      <c r="AI82" s="16"/>
-      <c r="AJ82" s="16"/>
-      <c r="AK82" s="16"/>
-      <c r="AL82" s="16"/>
-      <c r="AM82" s="16"/>
-      <c r="AN82" s="14"/>
-      <c r="AO82" s="14"/>
-      <c r="AP82" s="14"/>
-      <c r="AQ82" s="14"/>
-      <c r="AR82" s="14"/>
-      <c r="AS82" s="14"/>
-      <c r="AT82" s="14"/>
-      <c r="AU82" s="14"/>
-      <c r="AV82" s="14"/>
-      <c r="AW82" s="14"/>
-      <c r="AX82" s="14"/>
-      <c r="AY82" s="14"/>
-      <c r="AZ82" s="14"/>
-      <c r="BA82" s="14"/>
-      <c r="BB82" s="14"/>
-      <c r="BC82" s="14"/>
-      <c r="BD82" s="14"/>
-      <c r="BE82" s="14"/>
-      <c r="BF82" s="14"/>
-      <c r="BG82" s="14"/>
-      <c r="BH82" s="14"/>
-      <c r="BI82" s="17"/>
+      <c r="Z82" s="13"/>
+      <c r="AA82" s="13"/>
+      <c r="AB82" s="13"/>
+      <c r="AC82" s="13"/>
+      <c r="AD82" s="13"/>
+      <c r="AE82" s="13"/>
+      <c r="AF82" s="13"/>
+      <c r="AG82" s="13"/>
+      <c r="AH82" s="13"/>
+      <c r="AI82" s="13"/>
+      <c r="AJ82" s="13"/>
+      <c r="AK82" s="13"/>
+      <c r="AL82" s="13"/>
+      <c r="AM82" s="13"/>
+      <c r="AN82" s="16"/>
+      <c r="AO82" s="16"/>
+      <c r="AP82" s="16"/>
+      <c r="AQ82" s="16"/>
+      <c r="AR82" s="16"/>
+      <c r="AS82" s="16"/>
+      <c r="AT82" s="16"/>
+      <c r="AU82" s="16"/>
+      <c r="AV82" s="16"/>
+      <c r="AW82" s="16"/>
+      <c r="AX82" s="16"/>
+      <c r="AY82" s="16"/>
+      <c r="AZ82" s="16"/>
+      <c r="BA82" s="16"/>
+      <c r="BB82" s="16"/>
+      <c r="BC82" s="16"/>
+      <c r="BD82" s="16"/>
+      <c r="BE82" s="16"/>
+      <c r="BF82" s="16"/>
+      <c r="BG82" s="16"/>
+      <c r="BH82" s="16"/>
+      <c r="BI82" s="33"/>
     </row>
     <row r="83" spans="3:61" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C83" s="13">
+      <c r="C83" s="15">
         <v>5</v>
       </c>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16"/>
-      <c r="S83" s="16"/>
-      <c r="T83" s="16"/>
-      <c r="U83" s="16"/>
-      <c r="V83" s="16"/>
-      <c r="W83" s="16"/>
-      <c r="X83" s="16"/>
-      <c r="Y83" s="16"/>
-      <c r="Z83" s="16"/>
-      <c r="AA83" s="16"/>
-      <c r="AB83" s="16"/>
-      <c r="AC83" s="16"/>
-      <c r="AD83" s="16"/>
-      <c r="AE83" s="16"/>
-      <c r="AF83" s="16"/>
-      <c r="AG83" s="16"/>
-      <c r="AH83" s="16"/>
-      <c r="AI83" s="16"/>
-      <c r="AJ83" s="16"/>
-      <c r="AK83" s="16"/>
-      <c r="AL83" s="16"/>
-      <c r="AM83" s="16"/>
-      <c r="AN83" s="14"/>
-      <c r="AO83" s="14"/>
-      <c r="AP83" s="14"/>
-      <c r="AQ83" s="14"/>
-      <c r="AR83" s="14"/>
-      <c r="AS83" s="14"/>
-      <c r="AT83" s="14"/>
-      <c r="AU83" s="14"/>
-      <c r="AV83" s="14"/>
-      <c r="AW83" s="14"/>
-      <c r="AX83" s="14"/>
-      <c r="AY83" s="14"/>
-      <c r="AZ83" s="14"/>
-      <c r="BA83" s="14"/>
-      <c r="BB83" s="14"/>
-      <c r="BC83" s="14"/>
-      <c r="BD83" s="14"/>
-      <c r="BE83" s="14"/>
-      <c r="BF83" s="14"/>
-      <c r="BG83" s="14"/>
-      <c r="BH83" s="14"/>
-      <c r="BI83" s="17"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="13"/>
+      <c r="U83" s="13"/>
+      <c r="V83" s="13"/>
+      <c r="W83" s="13"/>
+      <c r="X83" s="13"/>
+      <c r="Y83" s="13"/>
+      <c r="Z83" s="13"/>
+      <c r="AA83" s="13"/>
+      <c r="AB83" s="13"/>
+      <c r="AC83" s="13"/>
+      <c r="AD83" s="13"/>
+      <c r="AE83" s="13"/>
+      <c r="AF83" s="13"/>
+      <c r="AG83" s="13"/>
+      <c r="AH83" s="13"/>
+      <c r="AI83" s="13"/>
+      <c r="AJ83" s="13"/>
+      <c r="AK83" s="13"/>
+      <c r="AL83" s="13"/>
+      <c r="AM83" s="13"/>
+      <c r="AN83" s="16"/>
+      <c r="AO83" s="16"/>
+      <c r="AP83" s="16"/>
+      <c r="AQ83" s="16"/>
+      <c r="AR83" s="16"/>
+      <c r="AS83" s="16"/>
+      <c r="AT83" s="16"/>
+      <c r="AU83" s="16"/>
+      <c r="AV83" s="16"/>
+      <c r="AW83" s="16"/>
+      <c r="AX83" s="16"/>
+      <c r="AY83" s="16"/>
+      <c r="AZ83" s="16"/>
+      <c r="BA83" s="16"/>
+      <c r="BB83" s="16"/>
+      <c r="BC83" s="16"/>
+      <c r="BD83" s="16"/>
+      <c r="BE83" s="16"/>
+      <c r="BF83" s="16"/>
+      <c r="BG83" s="16"/>
+      <c r="BH83" s="16"/>
+      <c r="BI83" s="33"/>
     </row>
     <row r="84" spans="3:61" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C84" s="13">
+      <c r="C84" s="15">
         <v>6</v>
       </c>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="16"/>
-      <c r="R84" s="16"/>
-      <c r="S84" s="16"/>
-      <c r="T84" s="16"/>
-      <c r="U84" s="16"/>
-      <c r="V84" s="16"/>
-      <c r="W84" s="16"/>
-      <c r="X84" s="16"/>
-      <c r="Y84" s="16"/>
-      <c r="Z84" s="16"/>
-      <c r="AA84" s="16"/>
-      <c r="AB84" s="16"/>
-      <c r="AC84" s="16"/>
-      <c r="AD84" s="16"/>
-      <c r="AE84" s="16"/>
-      <c r="AF84" s="16"/>
-      <c r="AG84" s="16"/>
-      <c r="AH84" s="16"/>
-      <c r="AI84" s="16"/>
-      <c r="AJ84" s="16"/>
-      <c r="AK84" s="16"/>
-      <c r="AL84" s="16"/>
-      <c r="AM84" s="16"/>
-      <c r="AN84" s="14"/>
-      <c r="AO84" s="14"/>
-      <c r="AP84" s="14"/>
-      <c r="AQ84" s="14"/>
-      <c r="AR84" s="14"/>
-      <c r="AS84" s="14"/>
-      <c r="AT84" s="14"/>
-      <c r="AU84" s="14"/>
-      <c r="AV84" s="14"/>
-      <c r="AW84" s="14"/>
-      <c r="AX84" s="14"/>
-      <c r="AY84" s="14"/>
-      <c r="AZ84" s="14"/>
-      <c r="BA84" s="14"/>
-      <c r="BB84" s="14"/>
-      <c r="BC84" s="14"/>
-      <c r="BD84" s="14"/>
-      <c r="BE84" s="14"/>
-      <c r="BF84" s="14"/>
-      <c r="BG84" s="14"/>
-      <c r="BH84" s="14"/>
-      <c r="BI84" s="17"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="13"/>
+      <c r="W84" s="13"/>
+      <c r="X84" s="13"/>
+      <c r="Y84" s="13"/>
+      <c r="Z84" s="13"/>
+      <c r="AA84" s="13"/>
+      <c r="AB84" s="13"/>
+      <c r="AC84" s="13"/>
+      <c r="AD84" s="13"/>
+      <c r="AE84" s="13"/>
+      <c r="AF84" s="13"/>
+      <c r="AG84" s="13"/>
+      <c r="AH84" s="13"/>
+      <c r="AI84" s="13"/>
+      <c r="AJ84" s="13"/>
+      <c r="AK84" s="13"/>
+      <c r="AL84" s="13"/>
+      <c r="AM84" s="13"/>
+      <c r="AN84" s="16"/>
+      <c r="AO84" s="16"/>
+      <c r="AP84" s="16"/>
+      <c r="AQ84" s="16"/>
+      <c r="AR84" s="16"/>
+      <c r="AS84" s="16"/>
+      <c r="AT84" s="16"/>
+      <c r="AU84" s="16"/>
+      <c r="AV84" s="16"/>
+      <c r="AW84" s="16"/>
+      <c r="AX84" s="16"/>
+      <c r="AY84" s="16"/>
+      <c r="AZ84" s="16"/>
+      <c r="BA84" s="16"/>
+      <c r="BB84" s="16"/>
+      <c r="BC84" s="16"/>
+      <c r="BD84" s="16"/>
+      <c r="BE84" s="16"/>
+      <c r="BF84" s="16"/>
+      <c r="BG84" s="16"/>
+      <c r="BH84" s="16"/>
+      <c r="BI84" s="33"/>
     </row>
     <row r="85" spans="3:61" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="13">
+      <c r="C85" s="15">
         <v>7</v>
       </c>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="15"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="16"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="16"/>
-      <c r="N85" s="16"/>
-      <c r="O85" s="16"/>
-      <c r="P85" s="16"/>
-      <c r="Q85" s="16"/>
-      <c r="R85" s="16"/>
-      <c r="S85" s="16"/>
-      <c r="T85" s="16"/>
-      <c r="U85" s="16"/>
-      <c r="V85" s="16"/>
-      <c r="W85" s="16"/>
-      <c r="X85" s="16"/>
-      <c r="Y85" s="16"/>
-      <c r="Z85" s="16"/>
-      <c r="AA85" s="16"/>
-      <c r="AB85" s="16"/>
-      <c r="AC85" s="16"/>
-      <c r="AD85" s="16"/>
-      <c r="AE85" s="16"/>
-      <c r="AF85" s="16"/>
-      <c r="AG85" s="16"/>
-      <c r="AH85" s="16"/>
-      <c r="AI85" s="16"/>
-      <c r="AJ85" s="16"/>
-      <c r="AK85" s="16"/>
-      <c r="AL85" s="16"/>
-      <c r="AM85" s="16"/>
-      <c r="AN85" s="14"/>
-      <c r="AO85" s="14"/>
-      <c r="AP85" s="14"/>
-      <c r="AQ85" s="14"/>
-      <c r="AR85" s="14"/>
-      <c r="AS85" s="14"/>
-      <c r="AT85" s="14"/>
-      <c r="AU85" s="14"/>
-      <c r="AV85" s="14"/>
-      <c r="AW85" s="14"/>
-      <c r="AX85" s="14"/>
-      <c r="AY85" s="14"/>
-      <c r="AZ85" s="14"/>
-      <c r="BA85" s="14"/>
-      <c r="BB85" s="14"/>
-      <c r="BC85" s="14"/>
-      <c r="BD85" s="14"/>
-      <c r="BE85" s="14"/>
-      <c r="BF85" s="14"/>
-      <c r="BG85" s="14"/>
-      <c r="BH85" s="14"/>
-      <c r="BI85" s="17"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13"/>
+      <c r="V85" s="13"/>
+      <c r="W85" s="13"/>
+      <c r="X85" s="13"/>
+      <c r="Y85" s="13"/>
+      <c r="Z85" s="13"/>
+      <c r="AA85" s="13"/>
+      <c r="AB85" s="13"/>
+      <c r="AC85" s="13"/>
+      <c r="AD85" s="13"/>
+      <c r="AE85" s="13"/>
+      <c r="AF85" s="13"/>
+      <c r="AG85" s="13"/>
+      <c r="AH85" s="13"/>
+      <c r="AI85" s="13"/>
+      <c r="AJ85" s="13"/>
+      <c r="AK85" s="13"/>
+      <c r="AL85" s="13"/>
+      <c r="AM85" s="13"/>
+      <c r="AN85" s="16"/>
+      <c r="AO85" s="16"/>
+      <c r="AP85" s="16"/>
+      <c r="AQ85" s="16"/>
+      <c r="AR85" s="16"/>
+      <c r="AS85" s="16"/>
+      <c r="AT85" s="16"/>
+      <c r="AU85" s="16"/>
+      <c r="AV85" s="16"/>
+      <c r="AW85" s="16"/>
+      <c r="AX85" s="16"/>
+      <c r="AY85" s="16"/>
+      <c r="AZ85" s="16"/>
+      <c r="BA85" s="16"/>
+      <c r="BB85" s="16"/>
+      <c r="BC85" s="16"/>
+      <c r="BD85" s="16"/>
+      <c r="BE85" s="16"/>
+      <c r="BF85" s="16"/>
+      <c r="BG85" s="16"/>
+      <c r="BH85" s="16"/>
+      <c r="BI85" s="33"/>
     </row>
     <row r="86" spans="3:61" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C86" s="13">
+      <c r="C86" s="15">
         <v>8</v>
       </c>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="15"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="16"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="16"/>
-      <c r="S86" s="16"/>
-      <c r="T86" s="16"/>
-      <c r="U86" s="16"/>
-      <c r="V86" s="16"/>
-      <c r="W86" s="16"/>
-      <c r="X86" s="16"/>
-      <c r="Y86" s="16"/>
-      <c r="Z86" s="16"/>
-      <c r="AA86" s="16"/>
-      <c r="AB86" s="16"/>
-      <c r="AC86" s="16"/>
-      <c r="AD86" s="16"/>
-      <c r="AE86" s="16"/>
-      <c r="AF86" s="16"/>
-      <c r="AG86" s="16"/>
-      <c r="AH86" s="16"/>
-      <c r="AI86" s="16"/>
-      <c r="AJ86" s="16"/>
-      <c r="AK86" s="16"/>
-      <c r="AL86" s="16"/>
-      <c r="AM86" s="16"/>
-      <c r="AN86" s="14"/>
-      <c r="AO86" s="14"/>
-      <c r="AP86" s="14"/>
-      <c r="AQ86" s="14"/>
-      <c r="AR86" s="14"/>
-      <c r="AS86" s="14"/>
-      <c r="AT86" s="14"/>
-      <c r="AU86" s="14"/>
-      <c r="AV86" s="14"/>
-      <c r="AW86" s="14"/>
-      <c r="AX86" s="14"/>
-      <c r="AY86" s="14"/>
-      <c r="AZ86" s="14"/>
-      <c r="BA86" s="14"/>
-      <c r="BB86" s="14"/>
-      <c r="BC86" s="14"/>
-      <c r="BD86" s="14"/>
-      <c r="BE86" s="14"/>
-      <c r="BF86" s="14"/>
-      <c r="BG86" s="14"/>
-      <c r="BH86" s="14"/>
-      <c r="BI86" s="17"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="13"/>
+      <c r="U86" s="13"/>
+      <c r="V86" s="13"/>
+      <c r="W86" s="13"/>
+      <c r="X86" s="13"/>
+      <c r="Y86" s="13"/>
+      <c r="Z86" s="13"/>
+      <c r="AA86" s="13"/>
+      <c r="AB86" s="13"/>
+      <c r="AC86" s="13"/>
+      <c r="AD86" s="13"/>
+      <c r="AE86" s="13"/>
+      <c r="AF86" s="13"/>
+      <c r="AG86" s="13"/>
+      <c r="AH86" s="13"/>
+      <c r="AI86" s="13"/>
+      <c r="AJ86" s="13"/>
+      <c r="AK86" s="13"/>
+      <c r="AL86" s="13"/>
+      <c r="AM86" s="13"/>
+      <c r="AN86" s="16"/>
+      <c r="AO86" s="16"/>
+      <c r="AP86" s="16"/>
+      <c r="AQ86" s="16"/>
+      <c r="AR86" s="16"/>
+      <c r="AS86" s="16"/>
+      <c r="AT86" s="16"/>
+      <c r="AU86" s="16"/>
+      <c r="AV86" s="16"/>
+      <c r="AW86" s="16"/>
+      <c r="AX86" s="16"/>
+      <c r="AY86" s="16"/>
+      <c r="AZ86" s="16"/>
+      <c r="BA86" s="16"/>
+      <c r="BB86" s="16"/>
+      <c r="BC86" s="16"/>
+      <c r="BD86" s="16"/>
+      <c r="BE86" s="16"/>
+      <c r="BF86" s="16"/>
+      <c r="BG86" s="16"/>
+      <c r="BH86" s="16"/>
+      <c r="BI86" s="33"/>
     </row>
     <row r="87" spans="3:61" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C87" s="13">
+      <c r="C87" s="15">
         <v>9</v>
       </c>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="15"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="16"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="16"/>
-      <c r="N87" s="16"/>
-      <c r="O87" s="16"/>
-      <c r="P87" s="16"/>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="16"/>
-      <c r="S87" s="16"/>
-      <c r="T87" s="16"/>
-      <c r="U87" s="16"/>
-      <c r="V87" s="16"/>
-      <c r="W87" s="16"/>
-      <c r="X87" s="16"/>
-      <c r="Y87" s="16"/>
-      <c r="Z87" s="16"/>
-      <c r="AA87" s="16"/>
-      <c r="AB87" s="16"/>
-      <c r="AC87" s="16"/>
-      <c r="AD87" s="16"/>
-      <c r="AE87" s="16"/>
-      <c r="AF87" s="16"/>
-      <c r="AG87" s="16"/>
-      <c r="AH87" s="16"/>
-      <c r="AI87" s="16"/>
-      <c r="AJ87" s="16"/>
-      <c r="AK87" s="16"/>
-      <c r="AL87" s="16"/>
-      <c r="AM87" s="16"/>
-      <c r="AN87" s="14"/>
-      <c r="AO87" s="14"/>
-      <c r="AP87" s="14"/>
-      <c r="AQ87" s="14"/>
-      <c r="AR87" s="14"/>
-      <c r="AS87" s="14"/>
-      <c r="AT87" s="14"/>
-      <c r="AU87" s="14"/>
-      <c r="AV87" s="14"/>
-      <c r="AW87" s="14"/>
-      <c r="AX87" s="14"/>
-      <c r="AY87" s="14"/>
-      <c r="AZ87" s="14"/>
-      <c r="BA87" s="14"/>
-      <c r="BB87" s="14"/>
-      <c r="BC87" s="14"/>
-      <c r="BD87" s="14"/>
-      <c r="BE87" s="14"/>
-      <c r="BF87" s="14"/>
-      <c r="BG87" s="14"/>
-      <c r="BH87" s="14"/>
-      <c r="BI87" s="17"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="13"/>
+      <c r="K87" s="13"/>
+      <c r="L87" s="13"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="13"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="13"/>
+      <c r="S87" s="13"/>
+      <c r="T87" s="13"/>
+      <c r="U87" s="13"/>
+      <c r="V87" s="13"/>
+      <c r="W87" s="13"/>
+      <c r="X87" s="13"/>
+      <c r="Y87" s="13"/>
+      <c r="Z87" s="13"/>
+      <c r="AA87" s="13"/>
+      <c r="AB87" s="13"/>
+      <c r="AC87" s="13"/>
+      <c r="AD87" s="13"/>
+      <c r="AE87" s="13"/>
+      <c r="AF87" s="13"/>
+      <c r="AG87" s="13"/>
+      <c r="AH87" s="13"/>
+      <c r="AI87" s="13"/>
+      <c r="AJ87" s="13"/>
+      <c r="AK87" s="13"/>
+      <c r="AL87" s="13"/>
+      <c r="AM87" s="13"/>
+      <c r="AN87" s="16"/>
+      <c r="AO87" s="16"/>
+      <c r="AP87" s="16"/>
+      <c r="AQ87" s="16"/>
+      <c r="AR87" s="16"/>
+      <c r="AS87" s="16"/>
+      <c r="AT87" s="16"/>
+      <c r="AU87" s="16"/>
+      <c r="AV87" s="16"/>
+      <c r="AW87" s="16"/>
+      <c r="AX87" s="16"/>
+      <c r="AY87" s="16"/>
+      <c r="AZ87" s="16"/>
+      <c r="BA87" s="16"/>
+      <c r="BB87" s="16"/>
+      <c r="BC87" s="16"/>
+      <c r="BD87" s="16"/>
+      <c r="BE87" s="16"/>
+      <c r="BF87" s="16"/>
+      <c r="BG87" s="16"/>
+      <c r="BH87" s="16"/>
+      <c r="BI87" s="33"/>
     </row>
     <row r="88" spans="3:61" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="13">
+      <c r="C88" s="15">
         <v>10</v>
       </c>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="16"/>
-      <c r="S88" s="16"/>
-      <c r="T88" s="16"/>
-      <c r="U88" s="16"/>
-      <c r="V88" s="16"/>
-      <c r="W88" s="16"/>
-      <c r="X88" s="16"/>
-      <c r="Y88" s="16"/>
-      <c r="Z88" s="16"/>
-      <c r="AA88" s="16"/>
-      <c r="AB88" s="16"/>
-      <c r="AC88" s="16"/>
-      <c r="AD88" s="16"/>
-      <c r="AE88" s="16"/>
-      <c r="AF88" s="16"/>
-      <c r="AG88" s="16"/>
-      <c r="AH88" s="16"/>
-      <c r="AI88" s="16"/>
-      <c r="AJ88" s="16"/>
-      <c r="AK88" s="16"/>
-      <c r="AL88" s="16"/>
-      <c r="AM88" s="16"/>
-      <c r="AN88" s="14"/>
-      <c r="AO88" s="14"/>
-      <c r="AP88" s="14"/>
-      <c r="AQ88" s="14"/>
-      <c r="AR88" s="14"/>
-      <c r="AS88" s="14"/>
-      <c r="AT88" s="14"/>
-      <c r="AU88" s="14"/>
-      <c r="AV88" s="14"/>
-      <c r="AW88" s="14"/>
-      <c r="AX88" s="14"/>
-      <c r="AY88" s="14"/>
-      <c r="AZ88" s="14"/>
-      <c r="BA88" s="14"/>
-      <c r="BB88" s="14"/>
-      <c r="BC88" s="14"/>
-      <c r="BD88" s="14"/>
-      <c r="BE88" s="14"/>
-      <c r="BF88" s="14"/>
-      <c r="BG88" s="14"/>
-      <c r="BH88" s="14"/>
-      <c r="BI88" s="17"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+      <c r="O88" s="13"/>
+      <c r="P88" s="13"/>
+      <c r="Q88" s="13"/>
+      <c r="R88" s="13"/>
+      <c r="S88" s="13"/>
+      <c r="T88" s="13"/>
+      <c r="U88" s="13"/>
+      <c r="V88" s="13"/>
+      <c r="W88" s="13"/>
+      <c r="X88" s="13"/>
+      <c r="Y88" s="13"/>
+      <c r="Z88" s="13"/>
+      <c r="AA88" s="13"/>
+      <c r="AB88" s="13"/>
+      <c r="AC88" s="13"/>
+      <c r="AD88" s="13"/>
+      <c r="AE88" s="13"/>
+      <c r="AF88" s="13"/>
+      <c r="AG88" s="13"/>
+      <c r="AH88" s="13"/>
+      <c r="AI88" s="13"/>
+      <c r="AJ88" s="13"/>
+      <c r="AK88" s="13"/>
+      <c r="AL88" s="13"/>
+      <c r="AM88" s="13"/>
+      <c r="AN88" s="16"/>
+      <c r="AO88" s="16"/>
+      <c r="AP88" s="16"/>
+      <c r="AQ88" s="16"/>
+      <c r="AR88" s="16"/>
+      <c r="AS88" s="16"/>
+      <c r="AT88" s="16"/>
+      <c r="AU88" s="16"/>
+      <c r="AV88" s="16"/>
+      <c r="AW88" s="16"/>
+      <c r="AX88" s="16"/>
+      <c r="AY88" s="16"/>
+      <c r="AZ88" s="16"/>
+      <c r="BA88" s="16"/>
+      <c r="BB88" s="16"/>
+      <c r="BC88" s="16"/>
+      <c r="BD88" s="16"/>
+      <c r="BE88" s="16"/>
+      <c r="BF88" s="16"/>
+      <c r="BG88" s="16"/>
+      <c r="BH88" s="16"/>
+      <c r="BI88" s="33"/>
     </row>
     <row r="89" spans="3:61" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="13">
+      <c r="C89" s="15">
         <v>11</v>
       </c>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
-      <c r="Q89" s="16"/>
-      <c r="R89" s="16"/>
-      <c r="S89" s="16"/>
-      <c r="T89" s="16"/>
-      <c r="U89" s="16"/>
-      <c r="V89" s="16"/>
-      <c r="W89" s="16"/>
-      <c r="X89" s="16"/>
-      <c r="Y89" s="16"/>
-      <c r="Z89" s="16"/>
-      <c r="AA89" s="16"/>
-      <c r="AB89" s="16"/>
-      <c r="AC89" s="16"/>
-      <c r="AD89" s="16"/>
-      <c r="AE89" s="16"/>
-      <c r="AF89" s="16"/>
-      <c r="AG89" s="16"/>
-      <c r="AH89" s="16"/>
-      <c r="AI89" s="16"/>
-      <c r="AJ89" s="16"/>
-      <c r="AK89" s="16"/>
-      <c r="AL89" s="16"/>
-      <c r="AM89" s="16"/>
-      <c r="AN89" s="14"/>
-      <c r="AO89" s="14"/>
-      <c r="AP89" s="14"/>
-      <c r="AQ89" s="14"/>
-      <c r="AR89" s="14"/>
-      <c r="AS89" s="14"/>
-      <c r="AT89" s="14"/>
-      <c r="AU89" s="14"/>
-      <c r="AV89" s="14"/>
-      <c r="AW89" s="14"/>
-      <c r="AX89" s="14"/>
-      <c r="AY89" s="14"/>
-      <c r="AZ89" s="14"/>
-      <c r="BA89" s="14"/>
-      <c r="BB89" s="14"/>
-      <c r="BC89" s="14"/>
-      <c r="BD89" s="14"/>
-      <c r="BE89" s="14"/>
-      <c r="BF89" s="14"/>
-      <c r="BG89" s="14"/>
-      <c r="BH89" s="14"/>
-      <c r="BI89" s="17"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+      <c r="O89" s="13"/>
+      <c r="P89" s="13"/>
+      <c r="Q89" s="13"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="13"/>
+      <c r="T89" s="13"/>
+      <c r="U89" s="13"/>
+      <c r="V89" s="13"/>
+      <c r="W89" s="13"/>
+      <c r="X89" s="13"/>
+      <c r="Y89" s="13"/>
+      <c r="Z89" s="13"/>
+      <c r="AA89" s="13"/>
+      <c r="AB89" s="13"/>
+      <c r="AC89" s="13"/>
+      <c r="AD89" s="13"/>
+      <c r="AE89" s="13"/>
+      <c r="AF89" s="13"/>
+      <c r="AG89" s="13"/>
+      <c r="AH89" s="13"/>
+      <c r="AI89" s="13"/>
+      <c r="AJ89" s="13"/>
+      <c r="AK89" s="13"/>
+      <c r="AL89" s="13"/>
+      <c r="AM89" s="13"/>
+      <c r="AN89" s="16"/>
+      <c r="AO89" s="16"/>
+      <c r="AP89" s="16"/>
+      <c r="AQ89" s="16"/>
+      <c r="AR89" s="16"/>
+      <c r="AS89" s="16"/>
+      <c r="AT89" s="16"/>
+      <c r="AU89" s="16"/>
+      <c r="AV89" s="16"/>
+      <c r="AW89" s="16"/>
+      <c r="AX89" s="16"/>
+      <c r="AY89" s="16"/>
+      <c r="AZ89" s="16"/>
+      <c r="BA89" s="16"/>
+      <c r="BB89" s="16"/>
+      <c r="BC89" s="16"/>
+      <c r="BD89" s="16"/>
+      <c r="BE89" s="16"/>
+      <c r="BF89" s="16"/>
+      <c r="BG89" s="16"/>
+      <c r="BH89" s="16"/>
+      <c r="BI89" s="33"/>
     </row>
     <row r="90" spans="3:61" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="13">
+      <c r="C90" s="15">
         <v>12</v>
       </c>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="16"/>
-      <c r="N90" s="16"/>
-      <c r="O90" s="16"/>
-      <c r="P90" s="16"/>
-      <c r="Q90" s="16"/>
-      <c r="R90" s="16"/>
-      <c r="S90" s="16"/>
-      <c r="T90" s="16"/>
-      <c r="U90" s="16"/>
-      <c r="V90" s="16"/>
-      <c r="W90" s="16"/>
-      <c r="X90" s="16"/>
-      <c r="Y90" s="16"/>
-      <c r="Z90" s="16"/>
-      <c r="AA90" s="16"/>
-      <c r="AB90" s="16"/>
-      <c r="AC90" s="16"/>
-      <c r="AD90" s="16"/>
-      <c r="AE90" s="16"/>
-      <c r="AF90" s="16"/>
-      <c r="AG90" s="16"/>
-      <c r="AH90" s="16"/>
-      <c r="AI90" s="16"/>
-      <c r="AJ90" s="16"/>
-      <c r="AK90" s="16"/>
-      <c r="AL90" s="16"/>
-      <c r="AM90" s="16"/>
-      <c r="AN90" s="14"/>
-      <c r="AO90" s="14"/>
-      <c r="AP90" s="14"/>
-      <c r="AQ90" s="14"/>
-      <c r="AR90" s="14"/>
-      <c r="AS90" s="14"/>
-      <c r="AT90" s="14"/>
-      <c r="AU90" s="14"/>
-      <c r="AV90" s="14"/>
-      <c r="AW90" s="14"/>
-      <c r="AX90" s="14"/>
-      <c r="AY90" s="14"/>
-      <c r="AZ90" s="14"/>
-      <c r="BA90" s="14"/>
-      <c r="BB90" s="14"/>
-      <c r="BC90" s="14"/>
-      <c r="BD90" s="14"/>
-      <c r="BE90" s="14"/>
-      <c r="BF90" s="14"/>
-      <c r="BG90" s="14"/>
-      <c r="BH90" s="14"/>
-      <c r="BI90" s="17"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="13"/>
+      <c r="S90" s="13"/>
+      <c r="T90" s="13"/>
+      <c r="U90" s="13"/>
+      <c r="V90" s="13"/>
+      <c r="W90" s="13"/>
+      <c r="X90" s="13"/>
+      <c r="Y90" s="13"/>
+      <c r="Z90" s="13"/>
+      <c r="AA90" s="13"/>
+      <c r="AB90" s="13"/>
+      <c r="AC90" s="13"/>
+      <c r="AD90" s="13"/>
+      <c r="AE90" s="13"/>
+      <c r="AF90" s="13"/>
+      <c r="AG90" s="13"/>
+      <c r="AH90" s="13"/>
+      <c r="AI90" s="13"/>
+      <c r="AJ90" s="13"/>
+      <c r="AK90" s="13"/>
+      <c r="AL90" s="13"/>
+      <c r="AM90" s="13"/>
+      <c r="AN90" s="16"/>
+      <c r="AO90" s="16"/>
+      <c r="AP90" s="16"/>
+      <c r="AQ90" s="16"/>
+      <c r="AR90" s="16"/>
+      <c r="AS90" s="16"/>
+      <c r="AT90" s="16"/>
+      <c r="AU90" s="16"/>
+      <c r="AV90" s="16"/>
+      <c r="AW90" s="16"/>
+      <c r="AX90" s="16"/>
+      <c r="AY90" s="16"/>
+      <c r="AZ90" s="16"/>
+      <c r="BA90" s="16"/>
+      <c r="BB90" s="16"/>
+      <c r="BC90" s="16"/>
+      <c r="BD90" s="16"/>
+      <c r="BE90" s="16"/>
+      <c r="BF90" s="16"/>
+      <c r="BG90" s="16"/>
+      <c r="BH90" s="16"/>
+      <c r="BI90" s="33"/>
     </row>
     <row r="91" spans="3:61" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C91" s="13">
+      <c r="C91" s="15">
         <v>13</v>
       </c>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="15"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="16"/>
-      <c r="N91" s="16"/>
-      <c r="O91" s="16"/>
-      <c r="P91" s="16"/>
-      <c r="Q91" s="16"/>
-      <c r="R91" s="16"/>
-      <c r="S91" s="16"/>
-      <c r="T91" s="16"/>
-      <c r="U91" s="16"/>
-      <c r="V91" s="16"/>
-      <c r="W91" s="16"/>
-      <c r="X91" s="16"/>
-      <c r="Y91" s="16"/>
-      <c r="Z91" s="16"/>
-      <c r="AA91" s="16"/>
-      <c r="AB91" s="16"/>
-      <c r="AC91" s="16"/>
-      <c r="AD91" s="16"/>
-      <c r="AE91" s="16"/>
-      <c r="AF91" s="16"/>
-      <c r="AG91" s="16"/>
-      <c r="AH91" s="16"/>
-      <c r="AI91" s="16"/>
-      <c r="AJ91" s="16"/>
-      <c r="AK91" s="16"/>
-      <c r="AL91" s="16"/>
-      <c r="AM91" s="16"/>
-      <c r="AN91" s="14"/>
-      <c r="AO91" s="14"/>
-      <c r="AP91" s="14"/>
-      <c r="AQ91" s="14"/>
-      <c r="AR91" s="14"/>
-      <c r="AS91" s="14"/>
-      <c r="AT91" s="14"/>
-      <c r="AU91" s="14"/>
-      <c r="AV91" s="14"/>
-      <c r="AW91" s="14"/>
-      <c r="AX91" s="14"/>
-      <c r="AY91" s="14"/>
-      <c r="AZ91" s="14"/>
-      <c r="BA91" s="14"/>
-      <c r="BB91" s="14"/>
-      <c r="BC91" s="14"/>
-      <c r="BD91" s="14"/>
-      <c r="BE91" s="14"/>
-      <c r="BF91" s="14"/>
-      <c r="BG91" s="14"/>
-      <c r="BH91" s="14"/>
-      <c r="BI91" s="17"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="13"/>
+      <c r="S91" s="13"/>
+      <c r="T91" s="13"/>
+      <c r="U91" s="13"/>
+      <c r="V91" s="13"/>
+      <c r="W91" s="13"/>
+      <c r="X91" s="13"/>
+      <c r="Y91" s="13"/>
+      <c r="Z91" s="13"/>
+      <c r="AA91" s="13"/>
+      <c r="AB91" s="13"/>
+      <c r="AC91" s="13"/>
+      <c r="AD91" s="13"/>
+      <c r="AE91" s="13"/>
+      <c r="AF91" s="13"/>
+      <c r="AG91" s="13"/>
+      <c r="AH91" s="13"/>
+      <c r="AI91" s="13"/>
+      <c r="AJ91" s="13"/>
+      <c r="AK91" s="13"/>
+      <c r="AL91" s="13"/>
+      <c r="AM91" s="13"/>
+      <c r="AN91" s="16"/>
+      <c r="AO91" s="16"/>
+      <c r="AP91" s="16"/>
+      <c r="AQ91" s="16"/>
+      <c r="AR91" s="16"/>
+      <c r="AS91" s="16"/>
+      <c r="AT91" s="16"/>
+      <c r="AU91" s="16"/>
+      <c r="AV91" s="16"/>
+      <c r="AW91" s="16"/>
+      <c r="AX91" s="16"/>
+      <c r="AY91" s="16"/>
+      <c r="AZ91" s="16"/>
+      <c r="BA91" s="16"/>
+      <c r="BB91" s="16"/>
+      <c r="BC91" s="16"/>
+      <c r="BD91" s="16"/>
+      <c r="BE91" s="16"/>
+      <c r="BF91" s="16"/>
+      <c r="BG91" s="16"/>
+      <c r="BH91" s="16"/>
+      <c r="BI91" s="33"/>
     </row>
     <row r="92" spans="3:61" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C92" s="13">
+      <c r="C92" s="15">
         <v>14</v>
       </c>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="15"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="16"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="16"/>
-      <c r="N92" s="16"/>
-      <c r="O92" s="16"/>
-      <c r="P92" s="16"/>
-      <c r="Q92" s="16"/>
-      <c r="R92" s="16"/>
-      <c r="S92" s="16"/>
-      <c r="T92" s="16"/>
-      <c r="U92" s="16"/>
-      <c r="V92" s="16"/>
-      <c r="W92" s="16"/>
-      <c r="X92" s="16"/>
-      <c r="Y92" s="16"/>
-      <c r="Z92" s="16"/>
-      <c r="AA92" s="16"/>
-      <c r="AB92" s="16"/>
-      <c r="AC92" s="16"/>
-      <c r="AD92" s="16"/>
-      <c r="AE92" s="16"/>
-      <c r="AF92" s="16"/>
-      <c r="AG92" s="16"/>
-      <c r="AH92" s="16"/>
-      <c r="AI92" s="16"/>
-      <c r="AJ92" s="16"/>
-      <c r="AK92" s="16"/>
-      <c r="AL92" s="16"/>
-      <c r="AM92" s="16"/>
-      <c r="AN92" s="14"/>
-      <c r="AO92" s="14"/>
-      <c r="AP92" s="14"/>
-      <c r="AQ92" s="14"/>
-      <c r="AR92" s="14"/>
-      <c r="AS92" s="14"/>
-      <c r="AT92" s="14"/>
-      <c r="AU92" s="14"/>
-      <c r="AV92" s="14"/>
-      <c r="AW92" s="14"/>
-      <c r="AX92" s="14"/>
-      <c r="AY92" s="14"/>
-      <c r="AZ92" s="14"/>
-      <c r="BA92" s="14"/>
-      <c r="BB92" s="14"/>
-      <c r="BC92" s="14"/>
-      <c r="BD92" s="14"/>
-      <c r="BE92" s="14"/>
-      <c r="BF92" s="14"/>
-      <c r="BG92" s="14"/>
-      <c r="BH92" s="14"/>
-      <c r="BI92" s="17"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+      <c r="O92" s="13"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="13"/>
+      <c r="S92" s="13"/>
+      <c r="T92" s="13"/>
+      <c r="U92" s="13"/>
+      <c r="V92" s="13"/>
+      <c r="W92" s="13"/>
+      <c r="X92" s="13"/>
+      <c r="Y92" s="13"/>
+      <c r="Z92" s="13"/>
+      <c r="AA92" s="13"/>
+      <c r="AB92" s="13"/>
+      <c r="AC92" s="13"/>
+      <c r="AD92" s="13"/>
+      <c r="AE92" s="13"/>
+      <c r="AF92" s="13"/>
+      <c r="AG92" s="13"/>
+      <c r="AH92" s="13"/>
+      <c r="AI92" s="13"/>
+      <c r="AJ92" s="13"/>
+      <c r="AK92" s="13"/>
+      <c r="AL92" s="13"/>
+      <c r="AM92" s="13"/>
+      <c r="AN92" s="16"/>
+      <c r="AO92" s="16"/>
+      <c r="AP92" s="16"/>
+      <c r="AQ92" s="16"/>
+      <c r="AR92" s="16"/>
+      <c r="AS92" s="16"/>
+      <c r="AT92" s="16"/>
+      <c r="AU92" s="16"/>
+      <c r="AV92" s="16"/>
+      <c r="AW92" s="16"/>
+      <c r="AX92" s="16"/>
+      <c r="AY92" s="16"/>
+      <c r="AZ92" s="16"/>
+      <c r="BA92" s="16"/>
+      <c r="BB92" s="16"/>
+      <c r="BC92" s="16"/>
+      <c r="BD92" s="16"/>
+      <c r="BE92" s="16"/>
+      <c r="BF92" s="16"/>
+      <c r="BG92" s="16"/>
+      <c r="BH92" s="16"/>
+      <c r="BI92" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="G91:X91"/>
+    <mergeCell ref="Y91:AM91"/>
+    <mergeCell ref="AN91:BI91"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="G92:X92"/>
+    <mergeCell ref="Y92:AM92"/>
+    <mergeCell ref="AN92:BI92"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="G89:X89"/>
+    <mergeCell ref="Y89:AM89"/>
+    <mergeCell ref="AN89:BI89"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="G90:X90"/>
+    <mergeCell ref="Y90:AM90"/>
+    <mergeCell ref="AN90:BI90"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="G87:X87"/>
+    <mergeCell ref="Y87:AM87"/>
+    <mergeCell ref="AN87:BI87"/>
+    <mergeCell ref="C88:F88"/>
+    <mergeCell ref="G88:X88"/>
+    <mergeCell ref="Y88:AM88"/>
+    <mergeCell ref="AN88:BI88"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="G85:X85"/>
+    <mergeCell ref="Y85:AM85"/>
+    <mergeCell ref="AN85:BI85"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="G86:X86"/>
+    <mergeCell ref="Y86:AM86"/>
+    <mergeCell ref="AN86:BI86"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="G83:X83"/>
+    <mergeCell ref="Y83:AM83"/>
+    <mergeCell ref="AN83:BI83"/>
+    <mergeCell ref="C84:F84"/>
+    <mergeCell ref="G84:X84"/>
+    <mergeCell ref="Y84:AM84"/>
+    <mergeCell ref="AN84:BI84"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="G81:X81"/>
+    <mergeCell ref="Y81:AM81"/>
+    <mergeCell ref="AN81:BI81"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="G82:X82"/>
+    <mergeCell ref="Y82:AM82"/>
+    <mergeCell ref="AN82:BI82"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="G79:X79"/>
+    <mergeCell ref="Y79:AM79"/>
+    <mergeCell ref="AN79:BI79"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="G80:X80"/>
+    <mergeCell ref="Y80:AM80"/>
+    <mergeCell ref="AN80:BI80"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="G77:X77"/>
+    <mergeCell ref="Y77:AM77"/>
+    <mergeCell ref="AN77:BI77"/>
+    <mergeCell ref="C78:F78"/>
+    <mergeCell ref="G78:X78"/>
+    <mergeCell ref="Y78:AM78"/>
+    <mergeCell ref="AN78:BI78"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="A4:F6"/>
+    <mergeCell ref="G1:AD3"/>
+    <mergeCell ref="G4:AD6"/>
+    <mergeCell ref="BZ68:CT68"/>
+    <mergeCell ref="BJ68:BY68"/>
+    <mergeCell ref="AN68:BI68"/>
+    <mergeCell ref="Y68:AM68"/>
+    <mergeCell ref="G68:X68"/>
+    <mergeCell ref="C68:F68"/>
+    <mergeCell ref="BZ70:CT70"/>
+    <mergeCell ref="BJ69:BY69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="G70:X70"/>
+    <mergeCell ref="Y70:AM70"/>
+    <mergeCell ref="AN70:BI70"/>
+    <mergeCell ref="BJ70:BY70"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="G69:X69"/>
+    <mergeCell ref="Y69:AM69"/>
+    <mergeCell ref="AN69:BI69"/>
+    <mergeCell ref="BZ69:CT69"/>
     <mergeCell ref="BZ71:CT71"/>
     <mergeCell ref="C71:F71"/>
     <mergeCell ref="G71:X71"/>
@@ -11338,92 +11424,6 @@
     <mergeCell ref="Y73:AM73"/>
     <mergeCell ref="AN73:BI73"/>
     <mergeCell ref="BJ73:BY73"/>
-    <mergeCell ref="BZ70:CT70"/>
-    <mergeCell ref="BJ69:BY69"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="G70:X70"/>
-    <mergeCell ref="Y70:AM70"/>
-    <mergeCell ref="AN70:BI70"/>
-    <mergeCell ref="BJ70:BY70"/>
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="G69:X69"/>
-    <mergeCell ref="Y69:AM69"/>
-    <mergeCell ref="AN69:BI69"/>
-    <mergeCell ref="BZ69:CT69"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="A4:F6"/>
-    <mergeCell ref="G1:AD3"/>
-    <mergeCell ref="G4:AD6"/>
-    <mergeCell ref="BZ68:CT68"/>
-    <mergeCell ref="BJ68:BY68"/>
-    <mergeCell ref="AN68:BI68"/>
-    <mergeCell ref="Y68:AM68"/>
-    <mergeCell ref="G68:X68"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C79:F79"/>
-    <mergeCell ref="G79:X79"/>
-    <mergeCell ref="Y79:AM79"/>
-    <mergeCell ref="AN79:BI79"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="G80:X80"/>
-    <mergeCell ref="Y80:AM80"/>
-    <mergeCell ref="AN80:BI80"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="G77:X77"/>
-    <mergeCell ref="Y77:AM77"/>
-    <mergeCell ref="AN77:BI77"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="G78:X78"/>
-    <mergeCell ref="Y78:AM78"/>
-    <mergeCell ref="AN78:BI78"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="G83:X83"/>
-    <mergeCell ref="Y83:AM83"/>
-    <mergeCell ref="AN83:BI83"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="G84:X84"/>
-    <mergeCell ref="Y84:AM84"/>
-    <mergeCell ref="AN84:BI84"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="G81:X81"/>
-    <mergeCell ref="Y81:AM81"/>
-    <mergeCell ref="AN81:BI81"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="G82:X82"/>
-    <mergeCell ref="Y82:AM82"/>
-    <mergeCell ref="AN82:BI82"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="G87:X87"/>
-    <mergeCell ref="Y87:AM87"/>
-    <mergeCell ref="AN87:BI87"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="G88:X88"/>
-    <mergeCell ref="Y88:AM88"/>
-    <mergeCell ref="AN88:BI88"/>
-    <mergeCell ref="C85:F85"/>
-    <mergeCell ref="G85:X85"/>
-    <mergeCell ref="Y85:AM85"/>
-    <mergeCell ref="AN85:BI85"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="G86:X86"/>
-    <mergeCell ref="Y86:AM86"/>
-    <mergeCell ref="AN86:BI86"/>
-    <mergeCell ref="C91:F91"/>
-    <mergeCell ref="G91:X91"/>
-    <mergeCell ref="Y91:AM91"/>
-    <mergeCell ref="AN91:BI91"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="G92:X92"/>
-    <mergeCell ref="Y92:AM92"/>
-    <mergeCell ref="AN92:BI92"/>
-    <mergeCell ref="C89:F89"/>
-    <mergeCell ref="G89:X89"/>
-    <mergeCell ref="Y89:AM89"/>
-    <mergeCell ref="AN89:BI89"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="G90:X90"/>
-    <mergeCell ref="Y90:AM90"/>
-    <mergeCell ref="AN90:BI90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
